--- a/Excel/MMSCredopay.xlsx
+++ b/Excel/MMSCredopay.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL 7480\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3375A1B-64EF-44A7-A299-C6A7F2F5178B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB88CF9F-1563-4D90-B809-926824C19B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{005994DC-EA0D-4C0F-B269-940F4670F484}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{005994DC-EA0D-4C0F-B269-940F4670F484}"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="4" r:id="rId1"/>
@@ -579,10 +579,10 @@
     <t>MATM</t>
   </si>
   <si>
-    <t>RegrTestBank AQE</t>
-  </si>
-  <si>
-    <t>venkiii1239@gmail.com</t>
+    <t>RegrTestBank AQV</t>
+  </si>
+  <si>
+    <t>venkiii1219@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1682,10 +1682,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC5D0DE3-4748-4120-8F92-FD95E6113FD0}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1716,57 +1716,51 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>172</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="B2" s="7"/>
       <c r="C2" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>174</v>
-      </c>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B4" s="7"/>
+        <v>178</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>172</v>
+      </c>
       <c r="C4" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>172</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1777,8 +1771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3888CC0-E7AD-47AB-A3B0-F8BEBBDB6D61}">
   <dimension ref="A1:AT12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1993,7 +1987,7 @@
         <v>461225892222</v>
       </c>
       <c r="O2" s="2">
-        <v>8951317421</v>
+        <v>8951187421</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>180</v>

--- a/Excel/MMSCredopay.xlsx
+++ b/Excel/MMSCredopay.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL 7480\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB88CF9F-1563-4D90-B809-926824C19B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E2CE51-56A5-423A-9947-4F29E9F09504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{005994DC-EA0D-4C0F-B269-940F4670F484}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{005994DC-EA0D-4C0F-B269-940F4670F484}"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="4" r:id="rId1"/>
     <sheet name="Bank" sheetId="1" r:id="rId2"/>
     <sheet name="Channel" sheetId="8" r:id="rId3"/>
-    <sheet name="Bank Regression" sheetId="2" r:id="rId4"/>
-    <sheet name="Aggregator" sheetId="3" r:id="rId5"/>
-    <sheet name="Aggregator Regression" sheetId="5" r:id="rId6"/>
-    <sheet name="ISO Regression" sheetId="7" r:id="rId7"/>
+    <sheet name="Commercial" sheetId="9" r:id="rId4"/>
+    <sheet name="Bank Regression" sheetId="2" r:id="rId5"/>
+    <sheet name="Aggregator" sheetId="3" r:id="rId6"/>
+    <sheet name="Aggregator Regression" sheetId="5" r:id="rId7"/>
+    <sheet name="ISO Regression" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="222">
   <si>
     <t>UserName</t>
   </si>
@@ -579,10 +580,133 @@
     <t>MATM</t>
   </si>
   <si>
-    <t>RegrTestBank AQV</t>
-  </si>
-  <si>
-    <t>venkiii1219@gmail.com</t>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>AD User</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>ONUS Routing</t>
+  </si>
+  <si>
+    <t>Interchange Channel</t>
+  </si>
+  <si>
+    <t>POS Interchange Bank Plan Small Merchants Emerging(Grocery-5411)</t>
+  </si>
+  <si>
+    <t>Bank AEPS Interchange Plan</t>
+  </si>
+  <si>
+    <t>Bank MATM Interchange Plan</t>
+  </si>
+  <si>
+    <t>Commercial Channel</t>
+  </si>
+  <si>
+    <t>Pricing Plan</t>
+  </si>
+  <si>
+    <t>Bank POS Discount Rate Plan</t>
+  </si>
+  <si>
+    <t>Bank UPI Discount Rate Plan</t>
+  </si>
+  <si>
+    <t>Bank MATM Incentive Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bank AEPS Discount Rate Plan</t>
+  </si>
+  <si>
+    <t>International Card Acceptance</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Account Type</t>
+  </si>
+  <si>
+    <t>IFSC Code</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>INDB0002257</t>
+  </si>
+  <si>
+    <t>Settlement Type</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Bank Own Deployment</t>
+  </si>
+  <si>
+    <t>Payfac Onboarding</t>
+  </si>
+  <si>
+    <t>ISO Onboarding</t>
+  </si>
+  <si>
+    <t>Sales Team Onboarding</t>
+  </si>
+  <si>
+    <t>Maximum Number of Platform</t>
+  </si>
+  <si>
+    <t>Webhook Type</t>
+  </si>
+  <si>
+    <t>SMS</t>
+  </si>
+  <si>
+    <t>Business Type</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>Company Proof of Identity</t>
+  </si>
+  <si>
+    <t>Individual Proof of Identity</t>
+  </si>
+  <si>
+    <t>Individual Proof of address</t>
+  </si>
+  <si>
+    <t>Individual Bank Documents</t>
+  </si>
+  <si>
+    <t>Individual Other Documents</t>
+  </si>
+  <si>
+    <t>Address Document</t>
+  </si>
+  <si>
+    <t>Driving Licence</t>
+  </si>
+  <si>
+    <t>Aadhaar</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Alternate Document</t>
+  </si>
+  <si>
+    <t>RegrTestBankk B</t>
+  </si>
+  <si>
+    <t>kkr11@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -704,7 +828,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -750,9 +874,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -762,6 +883,22 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1682,10 +1819,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC5D0DE3-4748-4120-8F92-FD95E6113FD0}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1698,31 +1835,40 @@
     <col min="6" max="6" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22"/>
+      <c r="E1" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B2" s="7"/>
+        <v>171</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>172</v>
+      </c>
       <c r="C2" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="7">
+        <v>817590</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -1733,6 +1879,7 @@
         <v>177</v>
       </c>
       <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
@@ -1747,19 +1894,8 @@
       <c r="D4" s="7" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>174</v>
+      <c r="E4" s="7">
+        <v>222252</v>
       </c>
     </row>
   </sheetData>
@@ -1768,11 +1904,96 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62EF84D-0B1A-4FC3-AF9D-A004CD7B9ED6}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.5546875" customWidth="1"/>
+    <col min="2" max="2" width="73.21875" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" customWidth="1"/>
+    <col min="4" max="4" width="53.44140625" style="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3888CC0-E7AD-47AB-A3B0-F8BEBBDB6D61}">
-  <dimension ref="A1:AT12"/>
+  <dimension ref="A1:BP12"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1783,27 +2004,42 @@
     <col min="4" max="4" width="27.21875" customWidth="1"/>
     <col min="5" max="6" width="21.77734375" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="11" width="13.77734375" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" customWidth="1"/>
-    <col min="13" max="13" width="16" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" customWidth="1"/>
-    <col min="15" max="15" width="22.33203125" customWidth="1"/>
-    <col min="16" max="16" width="16.88671875" customWidth="1"/>
-    <col min="27" max="27" width="13.88671875" customWidth="1"/>
-    <col min="28" max="28" width="14.77734375" customWidth="1"/>
-    <col min="32" max="32" width="11.21875" customWidth="1"/>
-    <col min="33" max="33" width="12.5546875" customWidth="1"/>
-    <col min="37" max="37" width="12" customWidth="1"/>
-    <col min="38" max="38" width="13.109375" customWidth="1"/>
-    <col min="42" max="42" width="10.6640625" customWidth="1"/>
-    <col min="43" max="43" width="12.21875" customWidth="1"/>
-    <col min="44" max="44" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="12.88671875" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="27.88671875" customWidth="1"/>
+    <col min="8" max="10" width="13.44140625" customWidth="1"/>
+    <col min="11" max="13" width="13.77734375" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" customWidth="1"/>
+    <col min="17" max="17" width="22.33203125" customWidth="1"/>
+    <col min="18" max="18" width="16.88671875" customWidth="1"/>
+    <col min="19" max="19" width="15.109375" customWidth="1"/>
+    <col min="20" max="20" width="15.77734375" customWidth="1"/>
+    <col min="24" max="24" width="15" customWidth="1"/>
+    <col min="25" max="25" width="11.21875" customWidth="1"/>
+    <col min="31" max="31" width="13.88671875" customWidth="1"/>
+    <col min="32" max="32" width="14.77734375" customWidth="1"/>
+    <col min="36" max="36" width="11.21875" customWidth="1"/>
+    <col min="37" max="37" width="12.5546875" customWidth="1"/>
+    <col min="41" max="41" width="12" customWidth="1"/>
+    <col min="42" max="42" width="13.109375" customWidth="1"/>
+    <col min="46" max="46" width="10.6640625" customWidth="1"/>
+    <col min="47" max="47" width="12.21875" customWidth="1"/>
+    <col min="48" max="48" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="12.88671875" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="11.6640625" customWidth="1"/>
+    <col min="51" max="51" width="13" customWidth="1"/>
+    <col min="52" max="52" width="15.5546875" customWidth="1"/>
+    <col min="53" max="60" width="15.6640625" customWidth="1"/>
+    <col min="61" max="61" width="27.88671875" customWidth="1"/>
+    <col min="62" max="62" width="19.33203125" customWidth="1"/>
+    <col min="63" max="63" width="27.33203125" customWidth="1"/>
+    <col min="64" max="64" width="28.109375" customWidth="1"/>
+    <col min="65" max="65" width="35" customWidth="1"/>
+    <col min="66" max="66" width="30.77734375" customWidth="1"/>
+    <col min="67" max="67" width="0.5546875" hidden="1" customWidth="1"/>
+    <col min="68" max="68" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:68" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1829,121 +2065,185 @@
         <v>11</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="S1" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" s="5" t="s">
+      <c r="X1" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="AH1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AR1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="AY1" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="AZ1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="BA1" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BB1" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="BC1" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="BD1" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="BE1" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="BF1" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="BG1" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="BH1" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="BI1" s="5" t="s">
         <v>67</v>
       </c>
+      <c r="BJ1" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="BK1" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="BL1" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="BM1" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="BN1" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="BO1" s="7"/>
+      <c r="BP1" s="7" t="s">
+        <v>214</v>
+      </c>
     </row>
-    <row r="2" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:68" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1951,7 +2251,7 @@
         <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -1968,122 +2268,185 @@
       <c r="H2" s="2">
         <v>6876868222</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="K2" t="s">
         <v>51</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>52</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="2">
+      <c r="P2" s="2">
         <v>461225892222</v>
       </c>
-      <c r="O2" s="2">
-        <v>8951187421</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="Q2" s="2">
-        <v>55</v>
-      </c>
-      <c r="R2" s="2">
+        <v>8951867221</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="T2" s="2">
+        <v>55</v>
+      </c>
+      <c r="U2" s="2">
         <v>33</v>
       </c>
-      <c r="S2" s="2">
+      <c r="V2" s="2">
         <v>22</v>
       </c>
-      <c r="T2" s="2">
+      <c r="W2" s="2">
         <v>11</v>
       </c>
-      <c r="U2" s="2">
-        <v>55</v>
-      </c>
-      <c r="V2" s="2">
-        <v>65</v>
-      </c>
-      <c r="W2" s="2">
-        <v>75</v>
-      </c>
-      <c r="X2" s="2">
-        <v>55</v>
+      <c r="X2" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="Y2" s="2">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z2" s="2">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AA2" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="AB2" s="2">
         <v>55</v>
       </c>
       <c r="AC2" s="2">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AD2" s="2">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AE2" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="AF2" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AG2" s="2">
         <v>55</v>
       </c>
       <c r="AH2" s="2">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="AI2" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AJ2" s="2">
         <v>45</v>
       </c>
       <c r="AK2" s="2">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="AL2" s="2">
         <v>25</v>
       </c>
       <c r="AM2" s="2">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AN2" s="2">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AO2" s="2">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="AP2" s="2">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="AQ2" s="2">
         <v>55</v>
       </c>
       <c r="AR2" s="2">
+        <v>65</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>75</v>
+      </c>
+      <c r="AT2" s="2">
+        <v>45</v>
+      </c>
+      <c r="AU2" s="2">
+        <v>55</v>
+      </c>
+      <c r="AV2" s="2">
         <v>456121232101</v>
       </c>
-      <c r="AS2" s="2">
+      <c r="AW2" s="2">
         <v>15</v>
       </c>
-      <c r="AT2" s="3" t="s">
+      <c r="AX2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AZ2" s="2">
+        <v>878768768676</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="BC2" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="BE2" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="BF2" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="BG2" s="2">
+        <v>5</v>
+      </c>
+      <c r="BH2" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="BI2" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="BJ2" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="BK2" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="BL2" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="BM2" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="BN2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="BP2" s="2" t="s">
+        <v>219</v>
+      </c>
     </row>
-    <row r="3" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:68" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -2106,122 +2469,137 @@
       <c r="H3" s="2">
         <v>6876868222</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" t="s">
         <v>52</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>72</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="2">
+      <c r="P3" s="2">
         <v>461225892222</v>
       </c>
-      <c r="O3" s="2">
+      <c r="Q3" s="2">
         <v>9856487423</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="Q3" s="2">
-        <v>55</v>
-      </c>
-      <c r="R3" s="2">
+      <c r="S3" s="2"/>
+      <c r="T3" s="2">
+        <v>55</v>
+      </c>
+      <c r="U3" s="2">
         <v>33</v>
       </c>
-      <c r="S3" s="2">
+      <c r="V3" s="2">
         <v>22</v>
       </c>
-      <c r="T3" s="2">
+      <c r="W3" s="2">
         <v>11</v>
       </c>
-      <c r="U3" s="2">
-        <v>55</v>
-      </c>
-      <c r="V3" s="2">
-        <v>65</v>
-      </c>
-      <c r="W3" s="2">
-        <v>75</v>
-      </c>
-      <c r="X3" s="2">
-        <v>55</v>
-      </c>
+      <c r="X3" s="2"/>
       <c r="Y3" s="2">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z3" s="2">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AA3" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="AB3" s="2">
         <v>55</v>
       </c>
       <c r="AC3" s="2">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AD3" s="2">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AE3" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="AF3" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AG3" s="2">
         <v>55</v>
       </c>
       <c r="AH3" s="2">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="AI3" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AJ3" s="2">
         <v>45</v>
       </c>
       <c r="AK3" s="2">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="AL3" s="2">
         <v>25</v>
       </c>
       <c r="AM3" s="2">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AN3" s="2">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AO3" s="2">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="AP3" s="2">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="AQ3" s="2">
         <v>55</v>
       </c>
       <c r="AR3" s="2">
+        <v>65</v>
+      </c>
+      <c r="AS3" s="2">
+        <v>75</v>
+      </c>
+      <c r="AT3" s="2">
+        <v>45</v>
+      </c>
+      <c r="AU3" s="2">
+        <v>55</v>
+      </c>
+      <c r="AV3" s="2">
         <v>456121232101</v>
       </c>
-      <c r="AS3" s="2">
+      <c r="AW3" s="2">
         <v>15</v>
       </c>
-      <c r="AT3" s="3" t="s">
+      <c r="AX3" s="2"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2"/>
+      <c r="BA3" s="2"/>
+      <c r="BB3" s="2"/>
+      <c r="BC3" s="2"/>
+      <c r="BD3" s="2"/>
+      <c r="BE3" s="2"/>
+      <c r="BF3" s="2"/>
+      <c r="BG3" s="2"/>
+      <c r="BH3" s="2"/>
+      <c r="BI3" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:68" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -2244,122 +2622,137 @@
       <c r="H4" s="2">
         <v>6876868222</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" t="s">
         <v>72</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>51</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="2">
+      <c r="P4" s="2">
         <v>461225892222</v>
       </c>
-      <c r="O4" s="2">
+      <c r="Q4" s="2">
         <v>9856487424</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="Q4" s="2">
-        <v>55</v>
-      </c>
-      <c r="R4" s="2">
+      <c r="S4" s="2"/>
+      <c r="T4" s="2">
+        <v>55</v>
+      </c>
+      <c r="U4" s="2">
         <v>33</v>
       </c>
-      <c r="S4" s="2">
+      <c r="V4" s="2">
         <v>22</v>
       </c>
-      <c r="T4" s="2">
+      <c r="W4" s="2">
         <v>11</v>
       </c>
-      <c r="U4" s="2">
-        <v>55</v>
-      </c>
-      <c r="V4" s="2">
-        <v>65</v>
-      </c>
-      <c r="W4" s="2">
-        <v>75</v>
-      </c>
-      <c r="X4" s="2">
-        <v>55</v>
-      </c>
+      <c r="X4" s="2"/>
       <c r="Y4" s="2">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z4" s="2">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AA4" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="AB4" s="2">
         <v>55</v>
       </c>
       <c r="AC4" s="2">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AD4" s="2">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AE4" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="AF4" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AG4" s="2">
         <v>55</v>
       </c>
       <c r="AH4" s="2">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="AI4" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AJ4" s="2">
         <v>45</v>
       </c>
       <c r="AK4" s="2">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="AL4" s="2">
         <v>25</v>
       </c>
       <c r="AM4" s="2">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AN4" s="2">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AO4" s="2">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="AP4" s="2">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="AQ4" s="2">
         <v>55</v>
       </c>
       <c r="AR4" s="2">
+        <v>65</v>
+      </c>
+      <c r="AS4" s="2">
+        <v>75</v>
+      </c>
+      <c r="AT4" s="2">
+        <v>45</v>
+      </c>
+      <c r="AU4" s="2">
+        <v>55</v>
+      </c>
+      <c r="AV4" s="2">
         <v>456121232101</v>
       </c>
-      <c r="AS4" s="2">
+      <c r="AW4" s="2">
         <v>15</v>
       </c>
-      <c r="AT4" s="3" t="s">
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BE4" s="2"/>
+      <c r="BF4" s="2"/>
+      <c r="BG4" s="2"/>
+      <c r="BH4" s="2"/>
+      <c r="BI4" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:68" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>113</v>
       </c>
@@ -2376,122 +2769,137 @@
       <c r="H5" s="2">
         <v>6876868222</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" t="s">
         <v>72</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>51</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>52</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="2">
+      <c r="P5" s="2">
         <v>461225892222</v>
       </c>
-      <c r="O5" s="2">
+      <c r="Q5" s="2">
         <v>9856487425</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="Q5" s="2">
-        <v>55</v>
-      </c>
-      <c r="R5" s="2">
+      <c r="S5" s="2"/>
+      <c r="T5" s="2">
+        <v>55</v>
+      </c>
+      <c r="U5" s="2">
         <v>33</v>
       </c>
-      <c r="S5" s="2">
+      <c r="V5" s="2">
         <v>22</v>
       </c>
-      <c r="T5" s="2">
+      <c r="W5" s="2">
         <v>11</v>
       </c>
-      <c r="U5" s="2">
-        <v>55</v>
-      </c>
-      <c r="V5" s="2">
-        <v>65</v>
-      </c>
-      <c r="W5" s="2">
-        <v>75</v>
-      </c>
-      <c r="X5" s="2">
-        <v>55</v>
-      </c>
+      <c r="X5" s="2"/>
       <c r="Y5" s="2">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z5" s="2">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AA5" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="AB5" s="2">
         <v>55</v>
       </c>
       <c r="AC5" s="2">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AD5" s="2">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AE5" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="AF5" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AG5" s="2">
         <v>55</v>
       </c>
       <c r="AH5" s="2">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="AI5" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AJ5" s="2">
         <v>45</v>
       </c>
       <c r="AK5" s="2">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="AL5" s="2">
         <v>25</v>
       </c>
       <c r="AM5" s="2">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AN5" s="2">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AO5" s="2">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="AP5" s="2">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="AQ5" s="2">
         <v>55</v>
       </c>
       <c r="AR5" s="2">
+        <v>65</v>
+      </c>
+      <c r="AS5" s="2">
+        <v>75</v>
+      </c>
+      <c r="AT5" s="2">
+        <v>45</v>
+      </c>
+      <c r="AU5" s="2">
+        <v>55</v>
+      </c>
+      <c r="AV5" s="2">
         <v>456121232101</v>
       </c>
-      <c r="AS5" s="2">
+      <c r="AW5" s="2">
         <v>15</v>
       </c>
-      <c r="AT5" s="3" t="s">
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="2"/>
+      <c r="AZ5" s="2"/>
+      <c r="BA5" s="2"/>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="2"/>
+      <c r="BE5" s="2"/>
+      <c r="BF5" s="2"/>
+      <c r="BG5" s="2"/>
+      <c r="BH5" s="2"/>
+      <c r="BI5" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:68" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>114</v>
       </c>
@@ -2508,122 +2916,137 @@
       <c r="H6" s="2">
         <v>6876868222</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" t="s">
         <v>72</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>51</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="2">
+      <c r="P6" s="2">
         <v>461225892222</v>
       </c>
-      <c r="O6" s="2">
+      <c r="Q6" s="2">
         <v>9856487426</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="Q6" s="2">
-        <v>55</v>
-      </c>
-      <c r="R6" s="2">
+      <c r="S6" s="2"/>
+      <c r="T6" s="2">
+        <v>55</v>
+      </c>
+      <c r="U6" s="2">
         <v>33</v>
       </c>
-      <c r="S6" s="2">
+      <c r="V6" s="2">
         <v>22</v>
       </c>
-      <c r="T6" s="2">
+      <c r="W6" s="2">
         <v>11</v>
       </c>
-      <c r="U6" s="2">
-        <v>55</v>
-      </c>
-      <c r="V6" s="2">
-        <v>65</v>
-      </c>
-      <c r="W6" s="2">
-        <v>75</v>
-      </c>
-      <c r="X6" s="2">
-        <v>55</v>
-      </c>
+      <c r="X6" s="2"/>
       <c r="Y6" s="2">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z6" s="2">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AA6" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="AB6" s="2">
         <v>55</v>
       </c>
       <c r="AC6" s="2">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AD6" s="2">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AE6" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="AF6" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AG6" s="2">
         <v>55</v>
       </c>
       <c r="AH6" s="2">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="AI6" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AJ6" s="2">
         <v>45</v>
       </c>
       <c r="AK6" s="2">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="AL6" s="2">
         <v>25</v>
       </c>
       <c r="AM6" s="2">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AN6" s="2">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AO6" s="2">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="AP6" s="2">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="AQ6" s="2">
         <v>55</v>
       </c>
       <c r="AR6" s="2">
+        <v>65</v>
+      </c>
+      <c r="AS6" s="2">
+        <v>75</v>
+      </c>
+      <c r="AT6" s="2">
+        <v>45</v>
+      </c>
+      <c r="AU6" s="2">
+        <v>55</v>
+      </c>
+      <c r="AV6" s="2">
         <v>456121232101</v>
       </c>
-      <c r="AS6" s="2">
+      <c r="AW6" s="2">
         <v>15</v>
       </c>
-      <c r="AT6" s="3" t="s">
+      <c r="AX6" s="2"/>
+      <c r="AY6" s="2"/>
+      <c r="AZ6" s="2"/>
+      <c r="BA6" s="2"/>
+      <c r="BB6" s="2"/>
+      <c r="BC6" s="2"/>
+      <c r="BD6" s="2"/>
+      <c r="BE6" s="2"/>
+      <c r="BF6" s="2"/>
+      <c r="BG6" s="2"/>
+      <c r="BH6" s="2"/>
+      <c r="BI6" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:68" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
         <v>115</v>
       </c>
@@ -2640,122 +3063,137 @@
       <c r="H7" s="2">
         <v>6876868222</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" t="s">
         <v>72</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>51</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>52</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>461225892222</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>9234527519</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="Q7" s="2">
-        <v>55</v>
-      </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2"/>
+      <c r="T7" s="2">
+        <v>55</v>
+      </c>
+      <c r="U7" s="2">
         <v>33</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>22</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>11</v>
       </c>
-      <c r="U7" s="2">
-        <v>55</v>
-      </c>
-      <c r="V7" s="2">
-        <v>65</v>
-      </c>
-      <c r="W7" s="2">
-        <v>75</v>
-      </c>
-      <c r="X7" s="2">
-        <v>55</v>
-      </c>
+      <c r="X7" s="2"/>
       <c r="Y7" s="2">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z7" s="2">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AA7" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="AB7" s="2">
         <v>55</v>
       </c>
       <c r="AC7" s="2">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AD7" s="2">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AE7" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="AF7" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AG7" s="2">
         <v>55</v>
       </c>
       <c r="AH7" s="2">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="AI7" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AJ7" s="2">
         <v>45</v>
       </c>
       <c r="AK7" s="2">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="AL7" s="2">
         <v>25</v>
       </c>
       <c r="AM7" s="2">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AN7" s="2">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AO7" s="2">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="AP7" s="2">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="AQ7" s="2">
         <v>55</v>
       </c>
       <c r="AR7" s="2">
+        <v>65</v>
+      </c>
+      <c r="AS7" s="2">
+        <v>75</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>45</v>
+      </c>
+      <c r="AU7" s="2">
+        <v>55</v>
+      </c>
+      <c r="AV7" s="2">
         <v>456121232101</v>
       </c>
-      <c r="AS7" s="2">
+      <c r="AW7" s="2">
         <v>15</v>
       </c>
-      <c r="AT7" s="3" t="s">
+      <c r="AX7" s="2"/>
+      <c r="AY7" s="2"/>
+      <c r="AZ7" s="2"/>
+      <c r="BA7" s="2"/>
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="2"/>
+      <c r="BD7" s="2"/>
+      <c r="BE7" s="2"/>
+      <c r="BF7" s="2"/>
+      <c r="BG7" s="2"/>
+      <c r="BH7" s="2"/>
+      <c r="BI7" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:68" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
         <v>116</v>
       </c>
@@ -2772,122 +3210,137 @@
       <c r="H8" s="2">
         <v>6876868222</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" t="s">
         <v>72</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>51</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="2">
+      <c r="P8" s="2">
         <v>461225892222</v>
       </c>
-      <c r="O8" s="2">
+      <c r="Q8" s="2">
         <v>9234527519</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="Q8" s="2">
-        <v>55</v>
-      </c>
-      <c r="R8" s="2">
+      <c r="S8" s="2"/>
+      <c r="T8" s="2">
+        <v>55</v>
+      </c>
+      <c r="U8" s="2">
         <v>33</v>
       </c>
-      <c r="S8" s="2">
+      <c r="V8" s="2">
         <v>22</v>
       </c>
-      <c r="T8" s="2">
+      <c r="W8" s="2">
         <v>11</v>
       </c>
-      <c r="U8" s="2">
-        <v>55</v>
-      </c>
-      <c r="V8" s="2">
-        <v>65</v>
-      </c>
-      <c r="W8" s="2">
-        <v>75</v>
-      </c>
-      <c r="X8" s="2">
-        <v>55</v>
-      </c>
+      <c r="X8" s="2"/>
       <c r="Y8" s="2">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z8" s="2">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AA8" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="AB8" s="2">
         <v>55</v>
       </c>
       <c r="AC8" s="2">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AD8" s="2">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AE8" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="AF8" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AG8" s="2">
         <v>55</v>
       </c>
       <c r="AH8" s="2">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="AI8" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AJ8" s="2">
         <v>45</v>
       </c>
       <c r="AK8" s="2">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="AL8" s="2">
         <v>25</v>
       </c>
       <c r="AM8" s="2">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AN8" s="2">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AO8" s="2">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="AP8" s="2">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="AQ8" s="2">
         <v>55</v>
       </c>
       <c r="AR8" s="2">
+        <v>65</v>
+      </c>
+      <c r="AS8" s="2">
+        <v>75</v>
+      </c>
+      <c r="AT8" s="2">
+        <v>45</v>
+      </c>
+      <c r="AU8" s="2">
+        <v>55</v>
+      </c>
+      <c r="AV8" s="2">
         <v>456121232101</v>
       </c>
-      <c r="AS8" s="2">
+      <c r="AW8" s="2">
         <v>15</v>
       </c>
-      <c r="AT8" s="3" t="s">
+      <c r="AX8" s="2"/>
+      <c r="AY8" s="2"/>
+      <c r="AZ8" s="2"/>
+      <c r="BA8" s="2"/>
+      <c r="BB8" s="2"/>
+      <c r="BC8" s="2"/>
+      <c r="BD8" s="2"/>
+      <c r="BE8" s="2"/>
+      <c r="BF8" s="2"/>
+      <c r="BG8" s="2"/>
+      <c r="BH8" s="2"/>
+      <c r="BI8" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:68" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C9" s="2" t="s">
         <v>117</v>
       </c>
@@ -2904,122 +3357,137 @@
       <c r="H9" s="2">
         <v>6876868222</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" t="s">
         <v>72</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>51</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="s">
         <v>52</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N9" s="2">
+      <c r="P9" s="2">
         <v>461225892222</v>
       </c>
-      <c r="O9" s="2">
+      <c r="Q9" s="2">
         <v>9234527519</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="Q9" s="2">
-        <v>55</v>
-      </c>
-      <c r="R9" s="2">
+      <c r="S9" s="2"/>
+      <c r="T9" s="2">
+        <v>55</v>
+      </c>
+      <c r="U9" s="2">
         <v>33</v>
       </c>
-      <c r="S9" s="2">
+      <c r="V9" s="2">
         <v>22</v>
       </c>
-      <c r="T9" s="2">
+      <c r="W9" s="2">
         <v>11</v>
       </c>
-      <c r="U9" s="2">
-        <v>55</v>
-      </c>
-      <c r="V9" s="2">
-        <v>65</v>
-      </c>
-      <c r="W9" s="2">
-        <v>75</v>
-      </c>
-      <c r="X9" s="2">
-        <v>55</v>
-      </c>
+      <c r="X9" s="2"/>
       <c r="Y9" s="2">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z9" s="2">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AA9" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="AB9" s="2">
         <v>55</v>
       </c>
       <c r="AC9" s="2">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AD9" s="2">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AE9" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="AF9" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AG9" s="2">
         <v>55</v>
       </c>
       <c r="AH9" s="2">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="AI9" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AJ9" s="2">
         <v>45</v>
       </c>
       <c r="AK9" s="2">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="AL9" s="2">
         <v>25</v>
       </c>
       <c r="AM9" s="2">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AN9" s="2">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AO9" s="2">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="AP9" s="2">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="AQ9" s="2">
         <v>55</v>
       </c>
       <c r="AR9" s="2">
+        <v>65</v>
+      </c>
+      <c r="AS9" s="2">
+        <v>75</v>
+      </c>
+      <c r="AT9" s="2">
+        <v>45</v>
+      </c>
+      <c r="AU9" s="2">
+        <v>55</v>
+      </c>
+      <c r="AV9" s="2">
         <v>456121232101</v>
       </c>
-      <c r="AS9" s="2">
+      <c r="AW9" s="2">
         <v>15</v>
       </c>
-      <c r="AT9" s="3" t="s">
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="2"/>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="2"/>
+      <c r="BD9" s="2"/>
+      <c r="BE9" s="2"/>
+      <c r="BF9" s="2"/>
+      <c r="BG9" s="2"/>
+      <c r="BH9" s="2"/>
+      <c r="BI9" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:68" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C10" s="2" t="s">
         <v>118</v>
       </c>
@@ -3036,122 +3504,137 @@
       <c r="H10" s="2">
         <v>6876868222</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" t="s">
         <v>72</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>51</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="s">
         <v>52</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N10" s="2">
+      <c r="P10" s="2">
         <v>461225892222</v>
       </c>
-      <c r="O10" s="2">
+      <c r="Q10" s="2">
         <v>9234527519</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="Q10" s="2">
-        <v>55</v>
-      </c>
-      <c r="R10" s="2">
+      <c r="S10" s="2"/>
+      <c r="T10" s="2">
+        <v>55</v>
+      </c>
+      <c r="U10" s="2">
         <v>33</v>
       </c>
-      <c r="S10" s="2">
+      <c r="V10" s="2">
         <v>22</v>
       </c>
-      <c r="T10" s="2">
+      <c r="W10" s="2">
         <v>11</v>
       </c>
-      <c r="U10" s="2">
-        <v>55</v>
-      </c>
-      <c r="V10" s="2">
-        <v>65</v>
-      </c>
-      <c r="W10" s="2">
-        <v>75</v>
-      </c>
-      <c r="X10" s="2">
-        <v>55</v>
-      </c>
+      <c r="X10" s="2"/>
       <c r="Y10" s="2">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z10" s="2">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AA10" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="AB10" s="2">
         <v>55</v>
       </c>
       <c r="AC10" s="2">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AD10" s="2">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AE10" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="AF10" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AG10" s="2">
         <v>55</v>
       </c>
       <c r="AH10" s="2">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="AI10" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AJ10" s="2">
         <v>45</v>
       </c>
       <c r="AK10" s="2">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="AL10" s="2">
         <v>25</v>
       </c>
       <c r="AM10" s="2">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AN10" s="2">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AO10" s="2">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="AP10" s="2">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="AQ10" s="2">
         <v>55</v>
       </c>
       <c r="AR10" s="2">
+        <v>65</v>
+      </c>
+      <c r="AS10" s="2">
+        <v>75</v>
+      </c>
+      <c r="AT10" s="2">
+        <v>45</v>
+      </c>
+      <c r="AU10" s="2">
+        <v>55</v>
+      </c>
+      <c r="AV10" s="2">
         <v>456121232101</v>
       </c>
-      <c r="AS10" s="2">
+      <c r="AW10" s="2">
         <v>15</v>
       </c>
-      <c r="AT10" s="3" t="s">
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="2"/>
+      <c r="AZ10" s="2"/>
+      <c r="BA10" s="2"/>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="2"/>
+      <c r="BD10" s="2"/>
+      <c r="BE10" s="2"/>
+      <c r="BF10" s="2"/>
+      <c r="BG10" s="2"/>
+      <c r="BH10" s="2"/>
+      <c r="BI10" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:68" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C11" s="2" t="s">
         <v>119</v>
       </c>
@@ -3168,122 +3651,137 @@
       <c r="H11" s="2">
         <v>6876868222</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" t="s">
         <v>72</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>51</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="s">
         <v>52</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="2">
+      <c r="P11" s="2">
         <v>461225892222</v>
       </c>
-      <c r="O11" s="2">
+      <c r="Q11" s="2">
         <v>9234527519</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="Q11" s="2">
-        <v>55</v>
-      </c>
-      <c r="R11" s="2">
+      <c r="S11" s="2"/>
+      <c r="T11" s="2">
+        <v>55</v>
+      </c>
+      <c r="U11" s="2">
         <v>33</v>
       </c>
-      <c r="S11" s="2">
+      <c r="V11" s="2">
         <v>22</v>
       </c>
-      <c r="T11" s="2">
+      <c r="W11" s="2">
         <v>11</v>
       </c>
-      <c r="U11" s="2">
-        <v>55</v>
-      </c>
-      <c r="V11" s="2">
-        <v>65</v>
-      </c>
-      <c r="W11" s="2">
-        <v>75</v>
-      </c>
-      <c r="X11" s="2">
-        <v>55</v>
-      </c>
+      <c r="X11" s="2"/>
       <c r="Y11" s="2">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z11" s="2">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AA11" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="AB11" s="2">
         <v>55</v>
       </c>
       <c r="AC11" s="2">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AD11" s="2">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AE11" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="AF11" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AG11" s="2">
         <v>55</v>
       </c>
       <c r="AH11" s="2">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="AI11" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AJ11" s="2">
         <v>45</v>
       </c>
       <c r="AK11" s="2">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="AL11" s="2">
         <v>25</v>
       </c>
       <c r="AM11" s="2">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AN11" s="2">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AO11" s="2">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="AP11" s="2">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="AQ11" s="2">
         <v>55</v>
       </c>
       <c r="AR11" s="2">
+        <v>65</v>
+      </c>
+      <c r="AS11" s="2">
+        <v>75</v>
+      </c>
+      <c r="AT11" s="2">
+        <v>45</v>
+      </c>
+      <c r="AU11" s="2">
+        <v>55</v>
+      </c>
+      <c r="AV11" s="2">
         <v>456121232101</v>
       </c>
-      <c r="AS11" s="2">
+      <c r="AW11" s="2">
         <v>15</v>
       </c>
-      <c r="AT11" s="3" t="s">
+      <c r="AX11" s="2"/>
+      <c r="AY11" s="2"/>
+      <c r="AZ11" s="2"/>
+      <c r="BA11" s="2"/>
+      <c r="BB11" s="2"/>
+      <c r="BC11" s="2"/>
+      <c r="BD11" s="2"/>
+      <c r="BE11" s="2"/>
+      <c r="BF11" s="2"/>
+      <c r="BG11" s="2"/>
+      <c r="BH11" s="2"/>
+      <c r="BI11" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:68" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C12" s="2" t="s">
         <v>120</v>
       </c>
@@ -3300,153 +3798,168 @@
       <c r="H12" s="2">
         <v>6876868222</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" t="s">
         <v>72</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>51</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N12" s="2">
+      <c r="P12" s="2">
         <v>461225892222</v>
       </c>
-      <c r="O12" s="2">
+      <c r="Q12" s="2">
         <v>9234527519</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="Q12" s="2">
-        <v>55</v>
-      </c>
-      <c r="R12" s="2">
+      <c r="S12" s="2"/>
+      <c r="T12" s="2">
+        <v>55</v>
+      </c>
+      <c r="U12" s="2">
         <v>33</v>
       </c>
-      <c r="S12" s="2">
+      <c r="V12" s="2">
         <v>22</v>
       </c>
-      <c r="T12" s="2">
+      <c r="W12" s="2">
         <v>11</v>
       </c>
-      <c r="U12" s="2">
-        <v>55</v>
-      </c>
-      <c r="V12" s="2">
-        <v>65</v>
-      </c>
-      <c r="W12" s="2">
-        <v>75</v>
-      </c>
-      <c r="X12" s="2">
-        <v>55</v>
-      </c>
+      <c r="X12" s="2"/>
       <c r="Y12" s="2">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z12" s="2">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AA12" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="AB12" s="2">
         <v>55</v>
       </c>
       <c r="AC12" s="2">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AD12" s="2">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AE12" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="AF12" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AG12" s="2">
         <v>55</v>
       </c>
       <c r="AH12" s="2">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="AI12" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AJ12" s="2">
         <v>45</v>
       </c>
       <c r="AK12" s="2">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="AL12" s="2">
         <v>25</v>
       </c>
       <c r="AM12" s="2">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AN12" s="2">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AO12" s="2">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="AP12" s="2">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="AQ12" s="2">
         <v>55</v>
       </c>
       <c r="AR12" s="2">
+        <v>65</v>
+      </c>
+      <c r="AS12" s="2">
+        <v>75</v>
+      </c>
+      <c r="AT12" s="2">
+        <v>45</v>
+      </c>
+      <c r="AU12" s="2">
+        <v>55</v>
+      </c>
+      <c r="AV12" s="2">
         <v>456121232101</v>
       </c>
-      <c r="AS12" s="2">
+      <c r="AW12" s="2">
         <v>15</v>
       </c>
-      <c r="AT12" s="3" t="s">
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="2"/>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="2"/>
+      <c r="BC12" s="2"/>
+      <c r="BD12" s="2"/>
+      <c r="BE12" s="2"/>
+      <c r="BF12" s="2"/>
+      <c r="BG12" s="2"/>
+      <c r="BH12" s="2"/>
+      <c r="BI12" s="3" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{76408797-E197-490B-8F16-330264DB4D14}"/>
-    <hyperlink ref="AT4" r:id="rId2" xr:uid="{81C973C5-7690-4C9B-8B5E-59E4277F932E}"/>
+    <hyperlink ref="BI4" r:id="rId2" xr:uid="{81C973C5-7690-4C9B-8B5E-59E4277F932E}"/>
     <hyperlink ref="B3" r:id="rId3" xr:uid="{2320277A-85BF-474A-83FC-BB469770F754}"/>
     <hyperlink ref="B4" r:id="rId4" xr:uid="{AB2BAE7B-F1A9-4A03-8AF9-68DA149C2C84}"/>
-    <hyperlink ref="AT3" r:id="rId5" xr:uid="{8E90C6DB-1DE5-4FFB-98D7-4A476D97053F}"/>
-    <hyperlink ref="P4" r:id="rId6" xr:uid="{43E05A77-32B0-40C7-9B91-B0605971AE43}"/>
-    <hyperlink ref="P3" r:id="rId7" xr:uid="{896E7423-A07D-4583-BA0A-84A523CDBABD}"/>
-    <hyperlink ref="AT5" r:id="rId8" xr:uid="{38AB6BB7-FA7A-42A9-8813-B1F5E778EF23}"/>
-    <hyperlink ref="AT6" r:id="rId9" xr:uid="{EA2088FA-A205-4E36-89EC-E3F52AEC5B79}"/>
-    <hyperlink ref="AT7" r:id="rId10" xr:uid="{EF59833B-8230-4C92-8935-4F8EC70567AF}"/>
-    <hyperlink ref="AT8" r:id="rId11" xr:uid="{AE05B126-51B4-4D6E-BFDF-1FF6D6677020}"/>
-    <hyperlink ref="AT9" r:id="rId12" xr:uid="{3E96D2E6-98E0-48EF-9C25-2C07B353D0A8}"/>
-    <hyperlink ref="AT10" r:id="rId13" xr:uid="{1E987AA6-63D3-40F0-A15E-53A2B77357F5}"/>
-    <hyperlink ref="AT11" r:id="rId14" xr:uid="{A9CCF8E2-BD5D-4392-9AD7-6644407CD289}"/>
-    <hyperlink ref="AT12" r:id="rId15" xr:uid="{7A26CAA7-0CBF-43B7-9F18-95CD3E72B5C9}"/>
-    <hyperlink ref="P5" r:id="rId16" xr:uid="{3D27DB6F-1471-41A7-8EBC-C2050258F8C8}"/>
-    <hyperlink ref="P6" r:id="rId17" xr:uid="{C33A4B82-A1AD-4D98-B790-5B0F1B9AEA34}"/>
-    <hyperlink ref="P7" r:id="rId18" xr:uid="{D74F0923-457A-4267-9157-0B008A6C0C70}"/>
-    <hyperlink ref="P8" r:id="rId19" xr:uid="{D4B1CD71-4078-4D26-A99D-FEB480C2C3B2}"/>
-    <hyperlink ref="P9" r:id="rId20" xr:uid="{52F02FA7-AA41-46E6-8A5D-5976DBE0F41F}"/>
-    <hyperlink ref="P10" r:id="rId21" xr:uid="{852AA0A8-F559-492A-B322-E69C719A0B87}"/>
-    <hyperlink ref="P11" r:id="rId22" xr:uid="{98841F08-33ED-4157-A70C-77E9412508F6}"/>
-    <hyperlink ref="P12" r:id="rId23" xr:uid="{5B894A7D-803A-4832-8DE1-F76313EB4F27}"/>
-    <hyperlink ref="P2" r:id="rId24" xr:uid="{5991CFB5-5CBA-4CB3-991F-5AF0B0A8C1F7}"/>
+    <hyperlink ref="BI3" r:id="rId5" xr:uid="{8E90C6DB-1DE5-4FFB-98D7-4A476D97053F}"/>
+    <hyperlink ref="R4" r:id="rId6" xr:uid="{43E05A77-32B0-40C7-9B91-B0605971AE43}"/>
+    <hyperlink ref="R3" r:id="rId7" xr:uid="{896E7423-A07D-4583-BA0A-84A523CDBABD}"/>
+    <hyperlink ref="BI5" r:id="rId8" xr:uid="{38AB6BB7-FA7A-42A9-8813-B1F5E778EF23}"/>
+    <hyperlink ref="BI6" r:id="rId9" xr:uid="{EA2088FA-A205-4E36-89EC-E3F52AEC5B79}"/>
+    <hyperlink ref="BI7" r:id="rId10" xr:uid="{EF59833B-8230-4C92-8935-4F8EC70567AF}"/>
+    <hyperlink ref="BI8" r:id="rId11" xr:uid="{AE05B126-51B4-4D6E-BFDF-1FF6D6677020}"/>
+    <hyperlink ref="BI9" r:id="rId12" xr:uid="{3E96D2E6-98E0-48EF-9C25-2C07B353D0A8}"/>
+    <hyperlink ref="BI10" r:id="rId13" xr:uid="{1E987AA6-63D3-40F0-A15E-53A2B77357F5}"/>
+    <hyperlink ref="BI11" r:id="rId14" xr:uid="{A9CCF8E2-BD5D-4392-9AD7-6644407CD289}"/>
+    <hyperlink ref="BI12" r:id="rId15" xr:uid="{7A26CAA7-0CBF-43B7-9F18-95CD3E72B5C9}"/>
+    <hyperlink ref="R5" r:id="rId16" xr:uid="{3D27DB6F-1471-41A7-8EBC-C2050258F8C8}"/>
+    <hyperlink ref="R6" r:id="rId17" xr:uid="{C33A4B82-A1AD-4D98-B790-5B0F1B9AEA34}"/>
+    <hyperlink ref="R7" r:id="rId18" xr:uid="{D74F0923-457A-4267-9157-0B008A6C0C70}"/>
+    <hyperlink ref="R8" r:id="rId19" xr:uid="{D4B1CD71-4078-4D26-A99D-FEB480C2C3B2}"/>
+    <hyperlink ref="R9" r:id="rId20" xr:uid="{52F02FA7-AA41-46E6-8A5D-5976DBE0F41F}"/>
+    <hyperlink ref="R10" r:id="rId21" xr:uid="{852AA0A8-F559-492A-B322-E69C719A0B87}"/>
+    <hyperlink ref="R11" r:id="rId22" xr:uid="{98841F08-33ED-4157-A70C-77E9412508F6}"/>
+    <hyperlink ref="R12" r:id="rId23" xr:uid="{5B894A7D-803A-4832-8DE1-F76313EB4F27}"/>
+    <hyperlink ref="R2" r:id="rId24" xr:uid="{5991CFB5-5CBA-4CB3-991F-5AF0B0A8C1F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B82349-F61B-41AE-A961-0A41C254206A}">
   <dimension ref="A1:BB6"/>
   <sheetViews>
@@ -4079,11 +4592,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{128B08EE-34EA-485A-BDF1-04E536A5F809}">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
@@ -4453,7 +4966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A3EBB0-4E47-46E8-ACD2-6A1684CB5530}">
   <dimension ref="A1:BA2"/>
   <sheetViews>

--- a/Excel/MMSCredopay.xlsx
+++ b/Excel/MMSCredopay.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL 7480\eclipse-workspace\MMSCredopay\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4371C687-59A2-453F-9EDC-1D001786EC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89ED820C-2DFE-40E5-9F1E-3AFF3B5ECF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="921" firstSheet="12" activeTab="18" xr2:uid="{005994DC-EA0D-4C0F-B269-940F4670F484}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="921" firstSheet="12" activeTab="17" xr2:uid="{005994DC-EA0D-4C0F-B269-940F4670F484}"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="4" r:id="rId1"/>
@@ -28,8 +28,8 @@
     <sheet name="Discount Rate Group Merchant" sheetId="17" r:id="rId13"/>
     <sheet name="Discount Rate Merchant" sheetId="31" r:id="rId14"/>
     <sheet name="ISO Regression" sheetId="7" r:id="rId15"/>
-    <sheet name="SUB ISO Regression" sheetId="15" r:id="rId16"/>
-    <sheet name="Group Merchant Regression" sheetId="16" r:id="rId17"/>
+    <sheet name="Group Merchant Regression" sheetId="16" r:id="rId16"/>
+    <sheet name="SUB ISO Regression" sheetId="15" r:id="rId17"/>
     <sheet name="Merchant Regression" sheetId="30" r:id="rId18"/>
     <sheet name="Terminal Regression" sheetId="32" r:id="rId19"/>
   </sheets>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="315">
   <si>
     <t>UserName</t>
   </si>
@@ -936,14 +936,74 @@
     <t>Merchant Name</t>
   </si>
   <si>
-    <t>CPMS29010020707</t>
+    <t>C:\Users\DELL 7480\Desktop\testimage.png</t>
+  </si>
+  <si>
+    <t>Terminal Name</t>
+  </si>
+  <si>
+    <t>Terminal Type</t>
+  </si>
+  <si>
+    <t>UPI Terminal Type</t>
+  </si>
+  <si>
+    <t>UPI Offline Type</t>
+  </si>
+  <si>
+    <t>Device Number</t>
+  </si>
+  <si>
+    <t>IMEI Number</t>
+  </si>
+  <si>
+    <t>Device Type</t>
+  </si>
+  <si>
+    <t>Device commercial</t>
+  </si>
+  <si>
+    <t>TID Fee Applicable</t>
+  </si>
+  <si>
+    <t>Device Price</t>
+  </si>
+  <si>
+    <t>Installation Fee</t>
+  </si>
+  <si>
+    <t>Automation Terminal</t>
+  </si>
+  <si>
+    <t>BOTH</t>
+  </si>
+  <si>
+    <t>VM30</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>CPMS</t>
+  </si>
+  <si>
+    <t>OFFLINE</t>
+  </si>
+  <si>
+    <t>Merchant</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Device Model</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1003,18 +1063,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Ubuntu-Regular"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1129,7 +1187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1206,7 +1264,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1230,8 +1287,14 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1550,17 +1613,17 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="25.109375" customWidth="1"/>
     <col min="2" max="2" width="25.44140625" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1571,40 +1634,40 @@
         <v>281</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>114</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
@@ -1615,11 +1678,11 @@
         <v>282</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+    <row r="6" spans="1:3" ht="53.4" customHeight="1">
+      <c r="A6" s="35" t="s">
         <v>283</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="35" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -1649,13 +1712,13 @@
       <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="25.21875" customWidth="1"/>
     <col min="2" max="2" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="29" t="s">
         <v>131</v>
       </c>
@@ -1663,7 +1726,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
         <v>207</v>
       </c>
@@ -1671,7 +1734,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
         <v>140</v>
       </c>
@@ -1679,7 +1742,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
         <v>139</v>
       </c>
@@ -1687,7 +1750,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
         <v>142</v>
       </c>
@@ -1708,13 +1771,13 @@
       <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26.77734375" customWidth="1"/>
     <col min="2" max="2" width="42.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="29" t="s">
         <v>131</v>
       </c>
@@ -1722,7 +1785,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
         <v>207</v>
       </c>
@@ -1730,7 +1793,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
         <v>140</v>
       </c>
@@ -1738,7 +1801,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
         <v>139</v>
       </c>
@@ -1746,7 +1809,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
         <v>142</v>
       </c>
@@ -1763,11 +1826,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{128B08EE-34EA-485A-BDF1-04E536A5F809}">
   <dimension ref="A1:CD14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="BQ1" workbookViewId="0">
+      <selection activeCell="BW3" sqref="BW3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19.5546875" customWidth="1"/>
     <col min="2" max="2" width="15.21875" customWidth="1"/>
@@ -1819,7 +1882,7 @@
     <col min="82" max="82" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" s="19" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:82" s="19" customFormat="1" ht="57.6">
       <c r="A1" s="8" t="s">
         <v>191</v>
       </c>
@@ -2067,7 +2130,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:82" s="2" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:82" s="2" customFormat="1" ht="43.2" customHeight="1">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -2096,7 +2159,7 @@
         <v>8</v>
       </c>
       <c r="K2" s="2">
-        <v>622299</v>
+        <v>600032</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>170</v>
@@ -2180,7 +2243,7 @@
         <v>111</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>111</v>
+        <v>294</v>
       </c>
       <c r="AN2" s="2" t="s">
         <v>108</v>
@@ -2312,7 +2375,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:82" s="2" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:82" s="2" customFormat="1" ht="43.2" customHeight="1">
       <c r="A3"/>
       <c r="C3"/>
       <c r="F3"/>
@@ -2324,7 +2387,7 @@
       <c r="AJ3"/>
       <c r="CD3" s="3"/>
     </row>
-    <row r="4" spans="1:82" s="2" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:82" s="2" customFormat="1" ht="43.2" customHeight="1">
       <c r="A4"/>
       <c r="C4"/>
       <c r="F4"/>
@@ -2336,7 +2399,7 @@
       <c r="AJ4"/>
       <c r="CD4" s="3"/>
     </row>
-    <row r="5" spans="1:82" s="2" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:82" s="2" customFormat="1" ht="43.2" customHeight="1">
       <c r="A5"/>
       <c r="C5"/>
       <c r="F5"/>
@@ -2348,7 +2411,7 @@
       <c r="AJ5"/>
       <c r="CD5" s="3"/>
     </row>
-    <row r="6" spans="1:82" s="2" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:82" s="2" customFormat="1" ht="43.2" customHeight="1">
       <c r="A6"/>
       <c r="C6"/>
       <c r="F6"/>
@@ -2360,7 +2423,7 @@
       <c r="AJ6"/>
       <c r="CD6" s="3"/>
     </row>
-    <row r="7" spans="1:82" s="2" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:82" s="2" customFormat="1" ht="43.2" customHeight="1">
       <c r="A7"/>
       <c r="C7"/>
       <c r="F7"/>
@@ -2372,7 +2435,7 @@
       <c r="AJ7"/>
       <c r="CD7" s="3"/>
     </row>
-    <row r="8" spans="1:82" s="2" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:82" s="2" customFormat="1" ht="43.2" customHeight="1">
       <c r="A8"/>
       <c r="C8"/>
       <c r="F8"/>
@@ -2384,7 +2447,7 @@
       <c r="AJ8"/>
       <c r="CD8" s="3"/>
     </row>
-    <row r="9" spans="1:82" s="2" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:82" s="2" customFormat="1" ht="43.2" customHeight="1">
       <c r="A9"/>
       <c r="C9"/>
       <c r="F9"/>
@@ -2396,7 +2459,7 @@
       <c r="AJ9"/>
       <c r="CD9" s="3"/>
     </row>
-    <row r="10" spans="1:82" s="2" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:82" s="2" customFormat="1" ht="43.2" customHeight="1">
       <c r="A10"/>
       <c r="C10"/>
       <c r="F10"/>
@@ -2408,7 +2471,7 @@
       <c r="AJ10"/>
       <c r="CD10" s="3"/>
     </row>
-    <row r="11" spans="1:82" s="2" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:82" s="2" customFormat="1" ht="43.2" customHeight="1">
       <c r="A11"/>
       <c r="C11"/>
       <c r="F11"/>
@@ -2420,13 +2483,13 @@
       <c r="AJ11"/>
       <c r="CD11" s="3"/>
     </row>
-    <row r="12" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:82">
       <c r="AT12" s="2"/>
     </row>
-    <row r="13" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:82">
       <c r="AM13" s="28"/>
     </row>
-    <row r="14" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:82">
       <c r="AM14" s="2"/>
     </row>
   </sheetData>
@@ -2446,13 +2509,13 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="29" t="s">
         <v>131</v>
       </c>
@@ -2460,7 +2523,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
         <v>207</v>
       </c>
@@ -2468,7 +2531,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
         <v>140</v>
       </c>
@@ -2476,7 +2539,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
         <v>139</v>
       </c>
@@ -2484,7 +2547,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
         <v>142</v>
       </c>
@@ -2505,14 +2568,14 @@
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="20.44140625" customWidth="1"/>
     <col min="2" max="2" width="45.88671875" customWidth="1"/>
     <col min="3" max="3" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="29" t="s">
         <v>131</v>
       </c>
@@ -2520,7 +2583,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
         <v>207</v>
       </c>
@@ -2528,7 +2591,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
         <v>139</v>
       </c>
@@ -2536,7 +2599,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
         <v>142</v>
       </c>
@@ -2544,7 +2607,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
         <v>140</v>
       </c>
@@ -2565,7 +2628,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26.5546875" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
@@ -2607,7 +2670,7 @@
     <col min="45" max="45" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="19" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" s="19" customFormat="1" ht="57.6">
       <c r="A1" s="31" t="s">
         <v>121</v>
       </c>
@@ -2753,7 +2816,7 @@
       <c r="BA1" s="5"/>
       <c r="BB1" s="5"/>
     </row>
-    <row r="2" spans="1:54" s="2" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:54" s="2" customFormat="1" ht="43.2" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>216</v>
       </c>
@@ -2899,6 +2962,362 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F707BD8A-7E03-45C5-B928-EACC8448603B}">
+  <dimension ref="A1:BG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.21875" customWidth="1"/>
+    <col min="7" max="8" width="20.109375" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" customWidth="1"/>
+    <col min="17" max="17" width="20.33203125" customWidth="1"/>
+    <col min="22" max="22" width="21.109375" customWidth="1"/>
+    <col min="26" max="26" width="10" customWidth="1"/>
+    <col min="27" max="27" width="15.77734375" customWidth="1"/>
+    <col min="28" max="28" width="11.5546875" customWidth="1"/>
+    <col min="29" max="29" width="14.6640625" customWidth="1"/>
+    <col min="31" max="31" width="20.6640625" customWidth="1"/>
+    <col min="32" max="32" width="16.21875" customWidth="1"/>
+    <col min="33" max="33" width="15" customWidth="1"/>
+    <col min="34" max="34" width="14.21875" customWidth="1"/>
+    <col min="35" max="35" width="19.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:59" s="19" customFormat="1" ht="72">
+      <c r="A1" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC1" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ1" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="AK1" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="AU1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="AX1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="5"/>
+      <c r="BA1" s="5"/>
+      <c r="BB1" s="5"/>
+      <c r="BC1" s="5"/>
+      <c r="BD1" s="5"/>
+      <c r="BE1" s="5"/>
+      <c r="BF1" s="5"/>
+      <c r="BG1" s="5"/>
+    </row>
+    <row r="2" spans="1:59" s="2" customFormat="1" ht="43.2" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2">
+        <v>622299</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K2" s="2">
+        <v>984517855</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="O2" s="2">
+        <v>5430</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" s="2">
+        <v>622299</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>9846559999</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>461225892222</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>471714784432</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>461225892222</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>7821745741</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>878768768676</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AU2" s="2">
+        <v>5</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="BG2" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AA2" r:id="rId1" xr:uid="{D1807A97-E5CF-4BFB-BE74-44E4174A6361}"/>
+    <hyperlink ref="AI2" r:id="rId2" xr:uid="{50617F42-0A91-408E-AB44-E12682419517}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F21F27D-47B5-4E69-9FEB-B92A91F2FD9E}">
   <dimension ref="A1:BC2"/>
   <sheetViews>
@@ -2906,7 +3325,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="21.21875" customWidth="1"/>
     <col min="3" max="3" width="20.5546875" customWidth="1"/>
@@ -2941,7 +3360,7 @@
     <col min="46" max="46" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="19" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" s="19" customFormat="1" ht="57.6">
       <c r="A1" s="31" t="s">
         <v>121</v>
       </c>
@@ -3090,7 +3509,7 @@
       <c r="BB1" s="5"/>
       <c r="BC1" s="5"/>
     </row>
-    <row r="2" spans="1:55" s="2" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:55" s="2" customFormat="1" ht="43.2" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>216</v>
       </c>
@@ -3237,374 +3656,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F707BD8A-7E03-45C5-B928-EACC8448603B}">
-  <dimension ref="A1:BG2"/>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E982A54-F801-4F34-8001-7890E220D571}">
+  <dimension ref="A1:CM2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="BV1" workbookViewId="0">
+      <selection activeCell="CC9" sqref="CC9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.21875" customWidth="1"/>
-    <col min="7" max="8" width="20.109375" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
-    <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="12.88671875" customWidth="1"/>
-    <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" customWidth="1"/>
-    <col min="17" max="17" width="20.33203125" customWidth="1"/>
-    <col min="22" max="22" width="21.109375" customWidth="1"/>
-    <col min="26" max="26" width="10" customWidth="1"/>
-    <col min="27" max="27" width="15.77734375" customWidth="1"/>
-    <col min="28" max="28" width="11.5546875" customWidth="1"/>
-    <col min="29" max="29" width="14.6640625" customWidth="1"/>
-    <col min="31" max="31" width="20.6640625" customWidth="1"/>
-    <col min="32" max="32" width="16.21875" customWidth="1"/>
-    <col min="33" max="33" width="15" customWidth="1"/>
-    <col min="34" max="34" width="14.21875" customWidth="1"/>
-    <col min="35" max="35" width="19.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:59" s="19" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="V1" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC1" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI1" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ1" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="AK1" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="AR1" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="AS1" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="AT1" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AU1" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AV1" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="AW1" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="AX1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY1" s="5"/>
-      <c r="AZ1" s="5"/>
-      <c r="BA1" s="5"/>
-      <c r="BB1" s="5"/>
-      <c r="BC1" s="5"/>
-      <c r="BD1" s="5"/>
-      <c r="BE1" s="5"/>
-      <c r="BF1" s="5"/>
-      <c r="BG1" s="5"/>
-    </row>
-    <row r="2" spans="1:59" s="2" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E2" s="2">
-        <v>51156</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="2">
-        <v>622299</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="K2" s="2">
-        <v>984517855</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="O2" s="2">
-        <v>5430</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="X2" s="2">
-        <v>622299</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>9846559999</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>461225892222</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>471714784432</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG2" s="2">
-        <v>461225892222</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>7821745741</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AN2" s="2">
-        <v>878768768676</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="AU2" s="2">
-        <v>5</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="BG2" s="3"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="AA2" r:id="rId1" xr:uid="{D1807A97-E5CF-4BFB-BE74-44E4174A6361}"/>
-    <hyperlink ref="AI2" r:id="rId2" xr:uid="{50617F42-0A91-408E-AB44-E12682419517}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E982A54-F801-4F34-8001-7890E220D571}">
-  <dimension ref="A1:CI2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BW5" sqref="BW5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
@@ -3652,12 +3712,17 @@
     <col min="64" max="64" width="13.88671875" customWidth="1"/>
     <col min="69" max="69" width="14.21875" customWidth="1"/>
     <col min="73" max="73" width="22.21875" customWidth="1"/>
-    <col min="75" max="75" width="15.77734375" customWidth="1"/>
-    <col min="78" max="78" width="16.33203125" customWidth="1"/>
-    <col min="79" max="79" width="29" customWidth="1"/>
+    <col min="74" max="74" width="20.88671875" customWidth="1"/>
+    <col min="75" max="75" width="25.21875" customWidth="1"/>
+    <col min="76" max="76" width="21.44140625" customWidth="1"/>
+    <col min="77" max="77" width="15.5546875" customWidth="1"/>
+    <col min="78" max="78" width="14.88671875" customWidth="1"/>
+    <col min="79" max="79" width="20.88671875" customWidth="1"/>
+    <col min="81" max="81" width="16.33203125" customWidth="1"/>
+    <col min="82" max="82" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:91" s="2" customFormat="1" ht="43.2">
       <c r="A1" s="17" t="s">
         <v>246</v>
       </c>
@@ -3760,377 +3825,434 @@
       <c r="AH1" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AI1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AK1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AL1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AM1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AN1" s="28" t="s">
+      <c r="AN1" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="AO1" s="28" t="s">
+      <c r="AO1" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="AP1" s="28" t="s">
+      <c r="AP1" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="AQ1" s="28" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="AR1" s="28" t="s">
+      <c r="AR1" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AS1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AT1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AU1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AV1" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AW1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="AX1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="AY1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="BA1" s="5" t="s">
+      <c r="BA1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BB1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BC1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BD1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BE1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" s="5" t="s">
+      <c r="BF1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" s="5" t="s">
+      <c r="BG1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" s="5" t="s">
+      <c r="BH1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BI1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" s="5" t="s">
+      <c r="BJ1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="BK1" s="5" t="s">
+      <c r="BK1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="BL1" s="5" t="s">
+      <c r="BL1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="BM1" s="5" t="s">
+      <c r="BM1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BN1" s="5" t="s">
+      <c r="BN1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="BO1" s="5" t="s">
+      <c r="BO1" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="BP1" s="5" t="s">
+      <c r="BP1" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="BQ1" s="5" t="s">
+      <c r="BQ1" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="BR1" s="5" t="s">
+      <c r="BR1" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="BS1" s="5" t="s">
+      <c r="BS1" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="BT1" s="5" t="s">
+      <c r="BT1" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="BU1" s="5" t="s">
+      <c r="BU1" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="BV1" s="5" t="s">
+      <c r="BV1" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="BW1" s="5" t="s">
+      <c r="BW1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="BX1" s="5" t="s">
+      <c r="BX1" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="BY1" s="5" t="s">
+      <c r="BY1" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="BZ1" s="28" t="s">
+      <c r="BZ1" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="CA1" s="5" t="s">
+      <c r="CA1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="CB1" s="5"/>
-      <c r="CC1" s="5"/>
-      <c r="CD1" s="5"/>
-      <c r="CE1" s="5"/>
-      <c r="CF1" s="5"/>
-      <c r="CG1" s="5"/>
-      <c r="CH1" s="5"/>
-      <c r="CI1" s="5"/>
-    </row>
-    <row r="2" spans="1:87" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="CB1" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="CC1" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="CD1" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="CE1" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="CF1" s="45" t="s">
+        <v>314</v>
+      </c>
+      <c r="CG1" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="CH1" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="CI1" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="CJ1" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="CK1" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="CL1" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="CM1" s="45" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:91" ht="62.4" customHeight="1">
+      <c r="A2" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="19">
         <v>622299</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="19">
         <v>984517855</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="19">
         <v>5411</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="Z2" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AA2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="19">
         <v>622299</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AC2" s="19">
         <v>9846559999</v>
       </c>
-      <c r="AD2" s="2">
+      <c r="AD2" s="19">
         <v>461225892222</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AE2" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AF2" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="AG2" s="2">
+      <c r="AG2" s="19">
         <v>981214643214</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AH2" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AI2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AJ2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="AK2" s="2">
+      <c r="AK2" s="19">
         <v>461225892222</v>
       </c>
-      <c r="AL2" s="2">
+      <c r="AL2" s="19">
         <v>7828782587</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AM2" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AN2" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="AO2" s="2">
+      <c r="AO2" s="19">
         <v>24</v>
       </c>
-      <c r="AP2" s="2">
+      <c r="AP2" s="19">
         <v>25</v>
       </c>
-      <c r="AQ2" s="2">
+      <c r="AQ2" s="19">
         <v>24</v>
       </c>
-      <c r="AR2" s="2">
+      <c r="AR2" s="19">
         <v>25</v>
       </c>
-      <c r="AS2" s="2">
+      <c r="AS2" s="19">
         <v>3</v>
       </c>
-      <c r="AT2" s="2">
+      <c r="AT2" s="19">
         <v>3</v>
       </c>
-      <c r="AU2" s="2">
+      <c r="AU2" s="19">
         <v>3</v>
       </c>
-      <c r="AV2" s="2"/>
-      <c r="AW2" s="2"/>
-      <c r="AX2" s="2"/>
-      <c r="AY2" s="2"/>
-      <c r="AZ2" s="2">
+      <c r="AV2" s="19"/>
+      <c r="AW2" s="19"/>
+      <c r="AX2" s="19"/>
+      <c r="AY2" s="19"/>
+      <c r="AZ2" s="19">
         <v>1000000</v>
       </c>
-      <c r="BA2" s="2">
+      <c r="BA2" s="19">
         <v>10000000</v>
       </c>
-      <c r="BB2" s="2">
+      <c r="BB2" s="19">
         <v>100000000</v>
       </c>
-      <c r="BC2" s="2">
+      <c r="BC2" s="19">
         <v>10</v>
       </c>
-      <c r="BD2" s="2">
+      <c r="BD2" s="19">
         <v>1000</v>
       </c>
-      <c r="BE2" s="2">
+      <c r="BE2" s="19">
         <v>1000000</v>
       </c>
-      <c r="BF2" s="2">
+      <c r="BF2" s="19">
         <v>10000000</v>
       </c>
-      <c r="BG2" s="2">
+      <c r="BG2" s="19">
         <v>100000000</v>
       </c>
-      <c r="BH2" s="2">
+      <c r="BH2" s="19">
         <v>10</v>
       </c>
-      <c r="BI2" s="2">
+      <c r="BI2" s="19">
         <v>1000</v>
       </c>
-      <c r="BJ2" s="2">
+      <c r="BJ2" s="19">
         <v>1000000</v>
       </c>
-      <c r="BK2" s="2">
+      <c r="BK2" s="19">
         <v>10000000</v>
       </c>
-      <c r="BL2" s="2">
+      <c r="BL2" s="19">
         <v>100000000</v>
       </c>
-      <c r="BM2" s="2">
+      <c r="BM2" s="19">
         <v>10</v>
       </c>
-      <c r="BN2" s="2">
+      <c r="BN2" s="19">
         <v>1000</v>
       </c>
-      <c r="BO2" s="2">
+      <c r="BO2" s="19">
         <v>1000000</v>
       </c>
-      <c r="BP2" s="2">
+      <c r="BP2" s="19">
         <v>10000000</v>
       </c>
-      <c r="BQ2" s="2">
+      <c r="BQ2" s="19">
         <v>100000000</v>
       </c>
-      <c r="BR2" s="2">
+      <c r="BR2" s="19">
         <v>10</v>
       </c>
-      <c r="BS2" s="2">
+      <c r="BS2" s="19">
         <v>1000</v>
       </c>
-      <c r="BT2" s="2">
+      <c r="BT2" s="19">
         <v>887079</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="BU2" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="BV2" s="2" t="s">
+      <c r="BV2" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="BW2" s="2">
+      <c r="BW2" s="19">
         <v>878768768676</v>
       </c>
-      <c r="BX2" s="2" t="s">
+      <c r="BX2" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="BY2" s="2" t="s">
+      <c r="BY2" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="BZ2" s="2" t="s">
+      <c r="BZ2" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="CA2" s="2" t="s">
+      <c r="CA2" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="CB2" s="2"/>
-      <c r="CC2" s="2"/>
-      <c r="CD2" s="2"/>
-      <c r="CE2" s="2"/>
-      <c r="CF2" s="3"/>
-      <c r="CI2" s="32"/>
+      <c r="CB2" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="CC2" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="CD2" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="CE2" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="CF2" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="CG2" s="7">
+        <v>57657657</v>
+      </c>
+      <c r="CH2" s="7">
+        <v>76876876</v>
+      </c>
+      <c r="CI2" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="CJ2" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="CK2" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="CL2" s="7"/>
+      <c r="CM2" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4143,38 +4265,119 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E96F2A-481D-44FE-AB6A-EFCE05D56489}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="29.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1"/>
+    <col min="10" max="10" width="18.77734375" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:16" s="46" customFormat="1">
+      <c r="A1" s="45" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B1" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="L1" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="M1" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="7" t="s">
-        <v>294</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G2" s="7">
+        <v>57657657</v>
+      </c>
+      <c r="H2" s="7">
+        <v>76876876</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="G6" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4186,7 +4389,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="22.44140625" customWidth="1"/>
     <col min="2" max="2" width="17.88671875" customWidth="1"/>
@@ -4229,7 +4432,7 @@
     <col min="53" max="53" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:60" s="5" customFormat="1" ht="43.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4409,7 +4612,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:60" s="28" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:60" s="28" customFormat="1" ht="72">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4589,7 +4792,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:60" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:60" s="28" customFormat="1">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4692,7 +4895,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:60" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:60" ht="28.8">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -4779,7 +4982,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:60" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:60" ht="43.2">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -4796,7 +4999,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:60" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:60" ht="26.4" customHeight="1">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -4813,14 +5016,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:60">
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:60">
       <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
@@ -4852,2372 +5055,1094 @@
   <dimension ref="A1:BR11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="32.109375" style="34" customWidth="1"/>
-    <col min="2" max="2" width="27.21875" style="34" customWidth="1"/>
+    <col min="1" max="1" width="32.109375" style="33" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" style="33" customWidth="1"/>
     <col min="3" max="3" width="27.21875" customWidth="1"/>
-    <col min="4" max="4" width="21" style="34" customWidth="1"/>
-    <col min="5" max="5" width="27.21875" style="34" customWidth="1"/>
-    <col min="6" max="7" width="21.77734375" style="34" customWidth="1"/>
-    <col min="8" max="8" width="15" style="34" customWidth="1"/>
-    <col min="9" max="11" width="13.44140625" style="34" customWidth="1"/>
-    <col min="12" max="14" width="13.77734375" style="34" customWidth="1"/>
-    <col min="15" max="15" width="15.88671875" style="34" customWidth="1"/>
-    <col min="16" max="16" width="16" style="34" customWidth="1"/>
-    <col min="17" max="17" width="15.33203125" style="34" customWidth="1"/>
-    <col min="18" max="18" width="22.33203125" style="34" customWidth="1"/>
-    <col min="19" max="19" width="16.88671875" style="34" customWidth="1"/>
-    <col min="20" max="20" width="15.109375" style="34" customWidth="1"/>
-    <col min="21" max="21" width="15.77734375" style="34" customWidth="1"/>
-    <col min="22" max="24" width="8.88671875" style="34"/>
-    <col min="25" max="25" width="15" style="34" customWidth="1"/>
-    <col min="26" max="26" width="11.21875" style="34" customWidth="1"/>
-    <col min="27" max="31" width="8.88671875" style="34"/>
-    <col min="32" max="32" width="13.88671875" style="34" customWidth="1"/>
-    <col min="33" max="33" width="14.77734375" style="34" customWidth="1"/>
-    <col min="34" max="36" width="8.88671875" style="34"/>
-    <col min="37" max="37" width="11.21875" style="34" customWidth="1"/>
-    <col min="38" max="38" width="12.5546875" style="34" customWidth="1"/>
-    <col min="39" max="41" width="8.88671875" style="34"/>
-    <col min="42" max="42" width="12" style="34" customWidth="1"/>
-    <col min="43" max="43" width="13.109375" style="34" customWidth="1"/>
-    <col min="44" max="46" width="8.88671875" style="34"/>
-    <col min="47" max="47" width="10.6640625" style="34" customWidth="1"/>
-    <col min="48" max="48" width="12.21875" style="34" customWidth="1"/>
-    <col min="49" max="49" width="8.88671875" style="34" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="12.88671875" style="34" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="11.6640625" style="34" customWidth="1"/>
-    <col min="52" max="52" width="13" style="34" customWidth="1"/>
-    <col min="53" max="53" width="22.77734375" style="34" customWidth="1"/>
-    <col min="54" max="61" width="15.6640625" style="34" customWidth="1"/>
-    <col min="62" max="62" width="27.88671875" style="34" customWidth="1"/>
-    <col min="63" max="63" width="19.33203125" style="34" customWidth="1"/>
-    <col min="64" max="64" width="27.33203125" style="34" customWidth="1"/>
-    <col min="65" max="65" width="28.109375" style="34" customWidth="1"/>
-    <col min="66" max="66" width="35" style="34" customWidth="1"/>
-    <col min="67" max="67" width="30.77734375" style="34" customWidth="1"/>
-    <col min="68" max="68" width="0.5546875" style="34" hidden="1" customWidth="1"/>
-    <col min="69" max="69" width="29.5546875" style="34" customWidth="1"/>
-    <col min="70" max="70" width="27.33203125" style="34" customWidth="1"/>
-    <col min="71" max="16384" width="8.88671875" style="34"/>
+    <col min="4" max="4" width="21" style="33" customWidth="1"/>
+    <col min="5" max="5" width="27.21875" style="33" customWidth="1"/>
+    <col min="6" max="7" width="21.77734375" style="33" customWidth="1"/>
+    <col min="8" max="8" width="15" style="33" customWidth="1"/>
+    <col min="9" max="11" width="13.44140625" style="33" customWidth="1"/>
+    <col min="12" max="14" width="13.77734375" style="33" customWidth="1"/>
+    <col min="15" max="15" width="15.88671875" style="33" customWidth="1"/>
+    <col min="16" max="16" width="16" style="33" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" style="33" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" style="33" customWidth="1"/>
+    <col min="19" max="19" width="16.88671875" style="33" customWidth="1"/>
+    <col min="20" max="20" width="15.109375" style="33" customWidth="1"/>
+    <col min="21" max="21" width="15.77734375" style="33" customWidth="1"/>
+    <col min="22" max="24" width="8.88671875" style="33"/>
+    <col min="25" max="25" width="15" style="33" customWidth="1"/>
+    <col min="26" max="26" width="11.21875" style="33" customWidth="1"/>
+    <col min="27" max="31" width="8.88671875" style="33"/>
+    <col min="32" max="32" width="13.88671875" style="33" customWidth="1"/>
+    <col min="33" max="33" width="14.77734375" style="33" customWidth="1"/>
+    <col min="34" max="36" width="8.88671875" style="33"/>
+    <col min="37" max="37" width="11.21875" style="33" customWidth="1"/>
+    <col min="38" max="38" width="12.5546875" style="33" customWidth="1"/>
+    <col min="39" max="41" width="8.88671875" style="33"/>
+    <col min="42" max="42" width="12" style="33" customWidth="1"/>
+    <col min="43" max="43" width="13.109375" style="33" customWidth="1"/>
+    <col min="44" max="46" width="8.88671875" style="33"/>
+    <col min="47" max="47" width="10.6640625" style="33" customWidth="1"/>
+    <col min="48" max="48" width="12.21875" style="33" customWidth="1"/>
+    <col min="49" max="49" width="8.88671875" style="33" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="12.88671875" style="33" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="11.6640625" style="33" customWidth="1"/>
+    <col min="52" max="52" width="13" style="33" customWidth="1"/>
+    <col min="53" max="53" width="22.77734375" style="33" customWidth="1"/>
+    <col min="54" max="61" width="15.6640625" style="33" customWidth="1"/>
+    <col min="62" max="62" width="27.88671875" style="33" customWidth="1"/>
+    <col min="63" max="63" width="19.33203125" style="33" customWidth="1"/>
+    <col min="64" max="64" width="27.33203125" style="33" customWidth="1"/>
+    <col min="65" max="65" width="28.109375" style="33" customWidth="1"/>
+    <col min="66" max="66" width="35" style="33" customWidth="1"/>
+    <col min="67" max="67" width="30.77734375" style="33" customWidth="1"/>
+    <col min="68" max="68" width="0.5546875" style="33" hidden="1" customWidth="1"/>
+    <col min="69" max="69" width="29.5546875" style="33" customWidth="1"/>
+    <col min="70" max="70" width="27.33203125" style="33" customWidth="1"/>
+    <col min="71" max="16384" width="8.88671875" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:70" ht="43.2">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="36" t="s">
         <v>281</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="O1" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="P1" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="R1" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="42" t="s">
+      <c r="S1" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="43" t="s">
+      <c r="T1" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="U1" s="43" t="s">
+      <c r="U1" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="43" t="s">
+      <c r="V1" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="W1" s="43" t="s">
+      <c r="W1" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="X1" s="43" t="s">
+      <c r="X1" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="Y1" s="43" t="s">
+      <c r="Y1" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="Z1" s="43" t="s">
+      <c r="Z1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="43" t="s">
+      <c r="AA1" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="AB1" s="43" t="s">
+      <c r="AB1" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="AC1" s="43" t="s">
+      <c r="AC1" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="AD1" s="43" t="s">
+      <c r="AD1" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="AE1" s="43" t="s">
+      <c r="AE1" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="AF1" s="43" t="s">
+      <c r="AF1" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="AG1" s="43" t="s">
+      <c r="AG1" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="AH1" s="43" t="s">
+      <c r="AH1" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="AI1" s="43" t="s">
+      <c r="AI1" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="AJ1" s="43" t="s">
+      <c r="AJ1" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="AK1" s="43" t="s">
+      <c r="AK1" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="AL1" s="43" t="s">
+      <c r="AL1" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="AM1" s="43" t="s">
+      <c r="AM1" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="AN1" s="43" t="s">
+      <c r="AN1" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AO1" s="43" t="s">
+      <c r="AO1" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="AP1" s="43" t="s">
+      <c r="AP1" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="AQ1" s="43" t="s">
+      <c r="AQ1" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="AR1" s="43" t="s">
+      <c r="AR1" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="AS1" s="43" t="s">
+      <c r="AS1" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="AT1" s="43" t="s">
+      <c r="AT1" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="AU1" s="43" t="s">
+      <c r="AU1" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="AV1" s="43" t="s">
+      <c r="AV1" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="AW1" s="43" t="s">
+      <c r="AW1" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="AX1" s="43" t="s">
+      <c r="AX1" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="AY1" s="43" t="s">
+      <c r="AY1" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="AZ1" s="43" t="s">
+      <c r="AZ1" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="BA1" s="43" t="s">
+      <c r="BA1" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="BB1" s="43" t="s">
+      <c r="BB1" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="BC1" s="43" t="s">
+      <c r="BC1" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="BD1" s="43" t="s">
+      <c r="BD1" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="BE1" s="43" t="s">
+      <c r="BE1" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="BF1" s="43" t="s">
+      <c r="BF1" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="BG1" s="43" t="s">
+      <c r="BG1" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="BH1" s="43" t="s">
+      <c r="BH1" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="BI1" s="43" t="s">
+      <c r="BI1" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="BJ1" s="43" t="s">
+      <c r="BJ1" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="BK1" s="44" t="s">
+      <c r="BK1" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="BL1" s="45" t="s">
+      <c r="BL1" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="BM1" s="45" t="s">
+      <c r="BM1" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="BN1" s="45" t="s">
+      <c r="BN1" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="BO1" s="45" t="s">
+      <c r="BO1" s="44" t="s">
         <v>242</v>
       </c>
-      <c r="BP1" s="45"/>
-      <c r="BQ1" s="45" t="s">
+      <c r="BP1" s="44"/>
+      <c r="BQ1" s="44" t="s">
         <v>243</v>
       </c>
-      <c r="BR1" s="45" t="s">
+      <c r="BR1" s="44" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:70" s="33" customFormat="1" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:70" s="32" customFormat="1" ht="55.2" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>114</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="37" t="s">
         <v>280</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="38">
+      <c r="G2" s="37">
         <v>604111</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="38">
+      <c r="I2" s="37">
         <v>6876868222</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="J2" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="O2" s="38" t="s">
+      <c r="O2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="38" t="s">
+      <c r="P2" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="38">
+      <c r="Q2" s="37">
         <v>461225892222</v>
       </c>
-      <c r="R2" s="38" t="s">
+      <c r="R2" s="37" t="s">
         <v>280</v>
       </c>
-      <c r="S2" s="38" t="s">
+      <c r="S2" s="37" t="s">
         <v>280</v>
       </c>
-      <c r="T2" s="38" t="s">
+      <c r="T2" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="U2" s="38">
+      <c r="U2" s="37">
         <v>55</v>
       </c>
-      <c r="V2" s="38">
+      <c r="V2" s="37">
         <v>33</v>
       </c>
-      <c r="W2" s="38">
+      <c r="W2" s="37">
         <v>22</v>
       </c>
-      <c r="X2" s="38">
+      <c r="X2" s="37">
         <v>11</v>
       </c>
-      <c r="Y2" s="38" t="s">
+      <c r="Y2" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="Z2" s="38">
+      <c r="Z2" s="37">
         <v>55</v>
       </c>
-      <c r="AA2" s="38">
+      <c r="AA2" s="37">
         <v>65</v>
       </c>
-      <c r="AB2" s="38">
+      <c r="AB2" s="37">
         <v>75</v>
       </c>
-      <c r="AC2" s="38">
+      <c r="AC2" s="37">
         <v>55</v>
       </c>
-      <c r="AD2" s="38">
+      <c r="AD2" s="37">
         <v>65</v>
       </c>
-      <c r="AE2" s="38">
+      <c r="AE2" s="37">
         <v>75</v>
       </c>
-      <c r="AF2" s="38">
+      <c r="AF2" s="37">
         <v>45</v>
       </c>
-      <c r="AG2" s="38">
+      <c r="AG2" s="37">
         <v>55</v>
       </c>
-      <c r="AH2" s="38">
+      <c r="AH2" s="37">
         <v>55</v>
       </c>
-      <c r="AI2" s="38">
+      <c r="AI2" s="37">
         <v>65</v>
       </c>
-      <c r="AJ2" s="38">
+      <c r="AJ2" s="37">
         <v>75</v>
       </c>
-      <c r="AK2" s="38">
+      <c r="AK2" s="37">
         <v>45</v>
       </c>
-      <c r="AL2" s="38">
+      <c r="AL2" s="37">
         <v>55</v>
       </c>
-      <c r="AM2" s="38">
+      <c r="AM2" s="37">
         <v>55</v>
       </c>
-      <c r="AN2" s="38">
+      <c r="AN2" s="37">
         <v>65</v>
       </c>
-      <c r="AO2" s="38">
+      <c r="AO2" s="37">
         <v>75</v>
       </c>
-      <c r="AP2" s="38">
+      <c r="AP2" s="37">
         <v>45</v>
       </c>
-      <c r="AQ2" s="38">
+      <c r="AQ2" s="37">
         <v>55</v>
       </c>
-      <c r="AR2" s="38">
+      <c r="AR2" s="37">
         <v>55</v>
       </c>
-      <c r="AS2" s="38">
+      <c r="AS2" s="37">
         <v>65</v>
       </c>
-      <c r="AT2" s="38">
+      <c r="AT2" s="37">
         <v>75</v>
       </c>
-      <c r="AU2" s="38">
+      <c r="AU2" s="37">
         <v>45</v>
       </c>
-      <c r="AV2" s="38">
+      <c r="AV2" s="37">
         <v>55</v>
       </c>
-      <c r="AW2" s="38">
+      <c r="AW2" s="37">
         <v>456121232101</v>
       </c>
-      <c r="AX2" s="38">
+      <c r="AX2" s="37">
         <v>15</v>
       </c>
-      <c r="AY2" s="38" t="s">
+      <c r="AY2" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="AZ2" s="38" t="s">
+      <c r="AZ2" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="BA2" s="38">
+      <c r="BA2" s="37">
         <v>878768768676</v>
       </c>
-      <c r="BB2" s="38" t="s">
+      <c r="BB2" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="BC2" s="38" t="s">
+      <c r="BC2" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="BD2" s="38" t="s">
+      <c r="BD2" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="BE2" s="38" t="s">
+      <c r="BE2" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="BF2" s="38" t="s">
+      <c r="BF2" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="BG2" s="38" t="s">
+      <c r="BG2" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="BH2" s="38">
+      <c r="BH2" s="37">
         <v>5</v>
       </c>
-      <c r="BI2" s="38" t="s">
+      <c r="BI2" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="BJ2" s="39" t="s">
+      <c r="BJ2" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="BK2" s="38" t="s">
+      <c r="BK2" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="BL2" s="38" t="s">
+      <c r="BL2" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="BM2" s="38" t="s">
+      <c r="BM2" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="BN2" s="38" t="s">
+      <c r="BN2" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="BO2" s="38" t="s">
+      <c r="BO2" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="BQ2" s="40" t="s">
+      <c r="BQ2" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="BR2" s="38" t="s">
+      <c r="BR2" s="37" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:70" s="33" customFormat="1" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="38">
-        <v>604111</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="38">
-        <v>6876868222</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="O3" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="38">
-        <v>461225892222</v>
-      </c>
-      <c r="R3" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="S3" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="T3" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="U3" s="38">
-        <v>55</v>
-      </c>
-      <c r="V3" s="38">
-        <v>33</v>
-      </c>
-      <c r="W3" s="38">
-        <v>22</v>
-      </c>
-      <c r="X3" s="38">
-        <v>11</v>
-      </c>
-      <c r="Y3" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z3" s="38">
-        <v>55</v>
-      </c>
-      <c r="AA3" s="38">
-        <v>65</v>
-      </c>
-      <c r="AB3" s="38">
-        <v>75</v>
-      </c>
-      <c r="AC3" s="38">
-        <v>55</v>
-      </c>
-      <c r="AD3" s="38">
-        <v>65</v>
-      </c>
-      <c r="AE3" s="38">
-        <v>75</v>
-      </c>
-      <c r="AF3" s="38">
-        <v>45</v>
-      </c>
-      <c r="AG3" s="38">
-        <v>55</v>
-      </c>
-      <c r="AH3" s="38">
-        <v>55</v>
-      </c>
-      <c r="AI3" s="38">
-        <v>65</v>
-      </c>
-      <c r="AJ3" s="38">
-        <v>75</v>
-      </c>
-      <c r="AK3" s="38">
-        <v>45</v>
-      </c>
-      <c r="AL3" s="38">
-        <v>55</v>
-      </c>
-      <c r="AM3" s="38">
-        <v>55</v>
-      </c>
-      <c r="AN3" s="38">
-        <v>65</v>
-      </c>
-      <c r="AO3" s="38">
-        <v>75</v>
-      </c>
-      <c r="AP3" s="38">
-        <v>45</v>
-      </c>
-      <c r="AQ3" s="38">
-        <v>55</v>
-      </c>
-      <c r="AR3" s="38">
-        <v>55</v>
-      </c>
-      <c r="AS3" s="38">
-        <v>65</v>
-      </c>
-      <c r="AT3" s="38">
-        <v>75</v>
-      </c>
-      <c r="AU3" s="38">
-        <v>45</v>
-      </c>
-      <c r="AV3" s="38">
-        <v>55</v>
-      </c>
-      <c r="AW3" s="38">
-        <v>456121232101</v>
-      </c>
-      <c r="AX3" s="38">
-        <v>15</v>
-      </c>
-      <c r="AY3" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="AZ3" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="BA3" s="38">
-        <v>878768768676</v>
-      </c>
-      <c r="BB3" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="BC3" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="BD3" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="BE3" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="BF3" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="BG3" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="BH3" s="38">
-        <v>5</v>
-      </c>
-      <c r="BI3" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="BJ3" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="BK3" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="BL3" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="BM3" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="BN3" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="BO3" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="BQ3" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="BR3" s="38" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:70" s="33" customFormat="1" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="38">
-        <v>604111</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="38">
-        <v>6876868222</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="K4" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="L4" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="M4" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="N4" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="O4" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" s="38">
-        <v>461225892222</v>
-      </c>
-      <c r="R4" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="S4" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="T4" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="U4" s="38">
-        <v>55</v>
-      </c>
-      <c r="V4" s="38">
-        <v>33</v>
-      </c>
-      <c r="W4" s="38">
-        <v>22</v>
-      </c>
-      <c r="X4" s="38">
-        <v>11</v>
-      </c>
-      <c r="Y4" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z4" s="38">
-        <v>55</v>
-      </c>
-      <c r="AA4" s="38">
-        <v>65</v>
-      </c>
-      <c r="AB4" s="38">
-        <v>75</v>
-      </c>
-      <c r="AC4" s="38">
-        <v>55</v>
-      </c>
-      <c r="AD4" s="38">
-        <v>65</v>
-      </c>
-      <c r="AE4" s="38">
-        <v>75</v>
-      </c>
-      <c r="AF4" s="38">
-        <v>45</v>
-      </c>
-      <c r="AG4" s="38">
-        <v>55</v>
-      </c>
-      <c r="AH4" s="38">
-        <v>55</v>
-      </c>
-      <c r="AI4" s="38">
-        <v>65</v>
-      </c>
-      <c r="AJ4" s="38">
-        <v>75</v>
-      </c>
-      <c r="AK4" s="38">
-        <v>45</v>
-      </c>
-      <c r="AL4" s="38">
-        <v>55</v>
-      </c>
-      <c r="AM4" s="38">
-        <v>55</v>
-      </c>
-      <c r="AN4" s="38">
-        <v>65</v>
-      </c>
-      <c r="AO4" s="38">
-        <v>75</v>
-      </c>
-      <c r="AP4" s="38">
-        <v>45</v>
-      </c>
-      <c r="AQ4" s="38">
-        <v>55</v>
-      </c>
-      <c r="AR4" s="38">
-        <v>55</v>
-      </c>
-      <c r="AS4" s="38">
-        <v>65</v>
-      </c>
-      <c r="AT4" s="38">
-        <v>75</v>
-      </c>
-      <c r="AU4" s="38">
-        <v>45</v>
-      </c>
-      <c r="AV4" s="38">
-        <v>55</v>
-      </c>
-      <c r="AW4" s="38">
-        <v>456121232101</v>
-      </c>
-      <c r="AX4" s="38">
-        <v>15</v>
-      </c>
-      <c r="AY4" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="AZ4" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="BA4" s="38">
-        <v>878768768676</v>
-      </c>
-      <c r="BB4" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="BC4" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="BD4" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="BE4" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="BF4" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="BG4" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="BH4" s="38">
-        <v>5</v>
-      </c>
-      <c r="BI4" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="BJ4" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="BK4" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="BL4" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="BM4" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="BN4" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="BO4" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="BQ4" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="BR4" s="38" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:70" s="33" customFormat="1" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="38">
-        <v>604111</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="38">
-        <v>6876868222</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="L5" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="O5" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" s="38">
-        <v>461225892222</v>
-      </c>
-      <c r="R5" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="S5" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="T5" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="U5" s="38">
-        <v>55</v>
-      </c>
-      <c r="V5" s="38">
-        <v>33</v>
-      </c>
-      <c r="W5" s="38">
-        <v>22</v>
-      </c>
-      <c r="X5" s="38">
-        <v>11</v>
-      </c>
-      <c r="Y5" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z5" s="38">
-        <v>55</v>
-      </c>
-      <c r="AA5" s="38">
-        <v>65</v>
-      </c>
-      <c r="AB5" s="38">
-        <v>75</v>
-      </c>
-      <c r="AC5" s="38">
-        <v>55</v>
-      </c>
-      <c r="AD5" s="38">
-        <v>65</v>
-      </c>
-      <c r="AE5" s="38">
-        <v>75</v>
-      </c>
-      <c r="AF5" s="38">
-        <v>45</v>
-      </c>
-      <c r="AG5" s="38">
-        <v>55</v>
-      </c>
-      <c r="AH5" s="38">
-        <v>55</v>
-      </c>
-      <c r="AI5" s="38">
-        <v>65</v>
-      </c>
-      <c r="AJ5" s="38">
-        <v>75</v>
-      </c>
-      <c r="AK5" s="38">
-        <v>45</v>
-      </c>
-      <c r="AL5" s="38">
-        <v>55</v>
-      </c>
-      <c r="AM5" s="38">
-        <v>55</v>
-      </c>
-      <c r="AN5" s="38">
-        <v>65</v>
-      </c>
-      <c r="AO5" s="38">
-        <v>75</v>
-      </c>
-      <c r="AP5" s="38">
-        <v>45</v>
-      </c>
-      <c r="AQ5" s="38">
-        <v>55</v>
-      </c>
-      <c r="AR5" s="38">
-        <v>55</v>
-      </c>
-      <c r="AS5" s="38">
-        <v>65</v>
-      </c>
-      <c r="AT5" s="38">
-        <v>75</v>
-      </c>
-      <c r="AU5" s="38">
-        <v>45</v>
-      </c>
-      <c r="AV5" s="38">
-        <v>55</v>
-      </c>
-      <c r="AW5" s="38">
-        <v>456121232101</v>
-      </c>
-      <c r="AX5" s="38">
-        <v>15</v>
-      </c>
-      <c r="AY5" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="AZ5" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="BA5" s="38">
-        <v>878768768676</v>
-      </c>
-      <c r="BB5" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="BC5" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="BD5" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="BE5" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="BF5" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="BG5" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="BH5" s="38">
-        <v>5</v>
-      </c>
-      <c r="BI5" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="BJ5" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="BK5" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="BL5" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="BM5" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="BN5" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="BO5" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="BQ5" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="BR5" s="38" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:70" s="33" customFormat="1" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="38">
-        <v>604111</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="38">
-        <v>6876868222</v>
-      </c>
-      <c r="J6" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="K6" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="L6" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="O6" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" s="38">
-        <v>461225892222</v>
-      </c>
-      <c r="R6" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="S6" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="T6" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="U6" s="38">
-        <v>55</v>
-      </c>
-      <c r="V6" s="38">
-        <v>33</v>
-      </c>
-      <c r="W6" s="38">
-        <v>22</v>
-      </c>
-      <c r="X6" s="38">
-        <v>11</v>
-      </c>
-      <c r="Y6" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z6" s="38">
-        <v>55</v>
-      </c>
-      <c r="AA6" s="38">
-        <v>65</v>
-      </c>
-      <c r="AB6" s="38">
-        <v>75</v>
-      </c>
-      <c r="AC6" s="38">
-        <v>55</v>
-      </c>
-      <c r="AD6" s="38">
-        <v>65</v>
-      </c>
-      <c r="AE6" s="38">
-        <v>75</v>
-      </c>
-      <c r="AF6" s="38">
-        <v>45</v>
-      </c>
-      <c r="AG6" s="38">
-        <v>55</v>
-      </c>
-      <c r="AH6" s="38">
-        <v>55</v>
-      </c>
-      <c r="AI6" s="38">
-        <v>65</v>
-      </c>
-      <c r="AJ6" s="38">
-        <v>75</v>
-      </c>
-      <c r="AK6" s="38">
-        <v>45</v>
-      </c>
-      <c r="AL6" s="38">
-        <v>55</v>
-      </c>
-      <c r="AM6" s="38">
-        <v>55</v>
-      </c>
-      <c r="AN6" s="38">
-        <v>65</v>
-      </c>
-      <c r="AO6" s="38">
-        <v>75</v>
-      </c>
-      <c r="AP6" s="38">
-        <v>45</v>
-      </c>
-      <c r="AQ6" s="38">
-        <v>55</v>
-      </c>
-      <c r="AR6" s="38">
-        <v>55</v>
-      </c>
-      <c r="AS6" s="38">
-        <v>65</v>
-      </c>
-      <c r="AT6" s="38">
-        <v>75</v>
-      </c>
-      <c r="AU6" s="38">
-        <v>45</v>
-      </c>
-      <c r="AV6" s="38">
-        <v>55</v>
-      </c>
-      <c r="AW6" s="38">
-        <v>456121232101</v>
-      </c>
-      <c r="AX6" s="38">
-        <v>15</v>
-      </c>
-      <c r="AY6" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="AZ6" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="BA6" s="38">
-        <v>878768768676</v>
-      </c>
-      <c r="BB6" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="BC6" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="BD6" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="BE6" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="BF6" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="BG6" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="BH6" s="38">
-        <v>5</v>
-      </c>
-      <c r="BI6" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="BJ6" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="BK6" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="BL6" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="BM6" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="BN6" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="BO6" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="BQ6" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="BR6" s="38" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:70" s="33" customFormat="1" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="38">
-        <v>604111</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="38">
-        <v>6876868222</v>
-      </c>
-      <c r="J7" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="K7" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="L7" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="M7" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="N7" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="O7" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="P7" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q7" s="38">
-        <v>461225892222</v>
-      </c>
-      <c r="R7" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="S7" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="T7" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="U7" s="38">
-        <v>55</v>
-      </c>
-      <c r="V7" s="38">
-        <v>33</v>
-      </c>
-      <c r="W7" s="38">
-        <v>22</v>
-      </c>
-      <c r="X7" s="38">
-        <v>11</v>
-      </c>
-      <c r="Y7" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z7" s="38">
-        <v>55</v>
-      </c>
-      <c r="AA7" s="38">
-        <v>65</v>
-      </c>
-      <c r="AB7" s="38">
-        <v>75</v>
-      </c>
-      <c r="AC7" s="38">
-        <v>55</v>
-      </c>
-      <c r="AD7" s="38">
-        <v>65</v>
-      </c>
-      <c r="AE7" s="38">
-        <v>75</v>
-      </c>
-      <c r="AF7" s="38">
-        <v>45</v>
-      </c>
-      <c r="AG7" s="38">
-        <v>55</v>
-      </c>
-      <c r="AH7" s="38">
-        <v>55</v>
-      </c>
-      <c r="AI7" s="38">
-        <v>65</v>
-      </c>
-      <c r="AJ7" s="38">
-        <v>75</v>
-      </c>
-      <c r="AK7" s="38">
-        <v>45</v>
-      </c>
-      <c r="AL7" s="38">
-        <v>55</v>
-      </c>
-      <c r="AM7" s="38">
-        <v>55</v>
-      </c>
-      <c r="AN7" s="38">
-        <v>65</v>
-      </c>
-      <c r="AO7" s="38">
-        <v>75</v>
-      </c>
-      <c r="AP7" s="38">
-        <v>45</v>
-      </c>
-      <c r="AQ7" s="38">
-        <v>55</v>
-      </c>
-      <c r="AR7" s="38">
-        <v>55</v>
-      </c>
-      <c r="AS7" s="38">
-        <v>65</v>
-      </c>
-      <c r="AT7" s="38">
-        <v>75</v>
-      </c>
-      <c r="AU7" s="38">
-        <v>45</v>
-      </c>
-      <c r="AV7" s="38">
-        <v>55</v>
-      </c>
-      <c r="AW7" s="38">
-        <v>456121232101</v>
-      </c>
-      <c r="AX7" s="38">
-        <v>15</v>
-      </c>
-      <c r="AY7" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="AZ7" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="BA7" s="38">
-        <v>878768768676</v>
-      </c>
-      <c r="BB7" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="BC7" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="BD7" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="BE7" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="BF7" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="BG7" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="BH7" s="38">
-        <v>5</v>
-      </c>
-      <c r="BI7" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="BJ7" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="BK7" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="BL7" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="BM7" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="BN7" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="BO7" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="BQ7" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="BR7" s="38" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:70" s="33" customFormat="1" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="38">
-        <v>604111</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="38">
-        <v>6876868222</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="L8" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="M8" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="N8" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="O8" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="P8" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" s="38">
-        <v>461225892222</v>
-      </c>
-      <c r="R8" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="S8" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="T8" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="U8" s="38">
-        <v>55</v>
-      </c>
-      <c r="V8" s="38">
-        <v>33</v>
-      </c>
-      <c r="W8" s="38">
-        <v>22</v>
-      </c>
-      <c r="X8" s="38">
-        <v>11</v>
-      </c>
-      <c r="Y8" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z8" s="38">
-        <v>55</v>
-      </c>
-      <c r="AA8" s="38">
-        <v>65</v>
-      </c>
-      <c r="AB8" s="38">
-        <v>75</v>
-      </c>
-      <c r="AC8" s="38">
-        <v>55</v>
-      </c>
-      <c r="AD8" s="38">
-        <v>65</v>
-      </c>
-      <c r="AE8" s="38">
-        <v>75</v>
-      </c>
-      <c r="AF8" s="38">
-        <v>45</v>
-      </c>
-      <c r="AG8" s="38">
-        <v>55</v>
-      </c>
-      <c r="AH8" s="38">
-        <v>55</v>
-      </c>
-      <c r="AI8" s="38">
-        <v>65</v>
-      </c>
-      <c r="AJ8" s="38">
-        <v>75</v>
-      </c>
-      <c r="AK8" s="38">
-        <v>45</v>
-      </c>
-      <c r="AL8" s="38">
-        <v>55</v>
-      </c>
-      <c r="AM8" s="38">
-        <v>55</v>
-      </c>
-      <c r="AN8" s="38">
-        <v>65</v>
-      </c>
-      <c r="AO8" s="38">
-        <v>75</v>
-      </c>
-      <c r="AP8" s="38">
-        <v>45</v>
-      </c>
-      <c r="AQ8" s="38">
-        <v>55</v>
-      </c>
-      <c r="AR8" s="38">
-        <v>55</v>
-      </c>
-      <c r="AS8" s="38">
-        <v>65</v>
-      </c>
-      <c r="AT8" s="38">
-        <v>75</v>
-      </c>
-      <c r="AU8" s="38">
-        <v>45</v>
-      </c>
-      <c r="AV8" s="38">
-        <v>55</v>
-      </c>
-      <c r="AW8" s="38">
-        <v>456121232101</v>
-      </c>
-      <c r="AX8" s="38">
-        <v>15</v>
-      </c>
-      <c r="AY8" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="AZ8" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="BA8" s="38">
-        <v>878768768676</v>
-      </c>
-      <c r="BB8" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="BC8" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="BD8" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="BE8" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="BF8" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="BG8" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="BH8" s="38">
-        <v>5</v>
-      </c>
-      <c r="BI8" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="BJ8" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="BK8" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="BL8" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="BM8" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="BN8" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="BO8" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="BQ8" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="BR8" s="38" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:70" s="33" customFormat="1" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="38">
-        <v>604111</v>
-      </c>
-      <c r="H9" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="38">
-        <v>6876868222</v>
-      </c>
-      <c r="J9" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="K9" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="L9" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="M9" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="N9" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="O9" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="P9" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q9" s="38">
-        <v>461225892222</v>
-      </c>
-      <c r="R9" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="S9" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="T9" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="U9" s="38">
-        <v>55</v>
-      </c>
-      <c r="V9" s="38">
-        <v>33</v>
-      </c>
-      <c r="W9" s="38">
-        <v>22</v>
-      </c>
-      <c r="X9" s="38">
-        <v>11</v>
-      </c>
-      <c r="Y9" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z9" s="38">
-        <v>55</v>
-      </c>
-      <c r="AA9" s="38">
-        <v>65</v>
-      </c>
-      <c r="AB9" s="38">
-        <v>75</v>
-      </c>
-      <c r="AC9" s="38">
-        <v>55</v>
-      </c>
-      <c r="AD9" s="38">
-        <v>65</v>
-      </c>
-      <c r="AE9" s="38">
-        <v>75</v>
-      </c>
-      <c r="AF9" s="38">
-        <v>45</v>
-      </c>
-      <c r="AG9" s="38">
-        <v>55</v>
-      </c>
-      <c r="AH9" s="38">
-        <v>55</v>
-      </c>
-      <c r="AI9" s="38">
-        <v>65</v>
-      </c>
-      <c r="AJ9" s="38">
-        <v>75</v>
-      </c>
-      <c r="AK9" s="38">
-        <v>45</v>
-      </c>
-      <c r="AL9" s="38">
-        <v>55</v>
-      </c>
-      <c r="AM9" s="38">
-        <v>55</v>
-      </c>
-      <c r="AN9" s="38">
-        <v>65</v>
-      </c>
-      <c r="AO9" s="38">
-        <v>75</v>
-      </c>
-      <c r="AP9" s="38">
-        <v>45</v>
-      </c>
-      <c r="AQ9" s="38">
-        <v>55</v>
-      </c>
-      <c r="AR9" s="38">
-        <v>55</v>
-      </c>
-      <c r="AS9" s="38">
-        <v>65</v>
-      </c>
-      <c r="AT9" s="38">
-        <v>75</v>
-      </c>
-      <c r="AU9" s="38">
-        <v>45</v>
-      </c>
-      <c r="AV9" s="38">
-        <v>55</v>
-      </c>
-      <c r="AW9" s="38">
-        <v>456121232101</v>
-      </c>
-      <c r="AX9" s="38">
-        <v>15</v>
-      </c>
-      <c r="AY9" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="AZ9" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="BA9" s="38">
-        <v>878768768676</v>
-      </c>
-      <c r="BB9" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="BC9" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="BD9" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="BE9" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="BF9" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="BG9" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="BH9" s="38">
-        <v>5</v>
-      </c>
-      <c r="BI9" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="BJ9" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="BK9" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="BL9" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="BM9" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="BN9" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="BO9" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="BQ9" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="BR9" s="38" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:70" s="33" customFormat="1" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="38">
-        <v>604111</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="38">
-        <v>6876868222</v>
-      </c>
-      <c r="J10" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="K10" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="L10" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="M10" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="N10" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="O10" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="P10" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q10" s="38">
-        <v>461225892222</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="S10" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="T10" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="U10" s="38">
-        <v>55</v>
-      </c>
-      <c r="V10" s="38">
-        <v>33</v>
-      </c>
-      <c r="W10" s="38">
-        <v>22</v>
-      </c>
-      <c r="X10" s="38">
-        <v>11</v>
-      </c>
-      <c r="Y10" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z10" s="38">
-        <v>55</v>
-      </c>
-      <c r="AA10" s="38">
-        <v>65</v>
-      </c>
-      <c r="AB10" s="38">
-        <v>75</v>
-      </c>
-      <c r="AC10" s="38">
-        <v>55</v>
-      </c>
-      <c r="AD10" s="38">
-        <v>65</v>
-      </c>
-      <c r="AE10" s="38">
-        <v>75</v>
-      </c>
-      <c r="AF10" s="38">
-        <v>45</v>
-      </c>
-      <c r="AG10" s="38">
-        <v>55</v>
-      </c>
-      <c r="AH10" s="38">
-        <v>55</v>
-      </c>
-      <c r="AI10" s="38">
-        <v>65</v>
-      </c>
-      <c r="AJ10" s="38">
-        <v>75</v>
-      </c>
-      <c r="AK10" s="38">
-        <v>45</v>
-      </c>
-      <c r="AL10" s="38">
-        <v>55</v>
-      </c>
-      <c r="AM10" s="38">
-        <v>55</v>
-      </c>
-      <c r="AN10" s="38">
-        <v>65</v>
-      </c>
-      <c r="AO10" s="38">
-        <v>75</v>
-      </c>
-      <c r="AP10" s="38">
-        <v>45</v>
-      </c>
-      <c r="AQ10" s="38">
-        <v>55</v>
-      </c>
-      <c r="AR10" s="38">
-        <v>55</v>
-      </c>
-      <c r="AS10" s="38">
-        <v>65</v>
-      </c>
-      <c r="AT10" s="38">
-        <v>75</v>
-      </c>
-      <c r="AU10" s="38">
-        <v>45</v>
-      </c>
-      <c r="AV10" s="38">
-        <v>55</v>
-      </c>
-      <c r="AW10" s="38">
-        <v>456121232101</v>
-      </c>
-      <c r="AX10" s="38">
-        <v>15</v>
-      </c>
-      <c r="AY10" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="AZ10" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="BA10" s="38">
-        <v>878768768676</v>
-      </c>
-      <c r="BB10" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="BC10" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="BD10" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="BE10" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="BF10" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="BG10" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="BH10" s="38">
-        <v>5</v>
-      </c>
-      <c r="BI10" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="BJ10" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="BK10" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="BL10" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="BM10" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="BN10" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="BO10" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="BQ10" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="BR10" s="38" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:70" s="33" customFormat="1" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="38">
-        <v>604111</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="38">
-        <v>6876868222</v>
-      </c>
-      <c r="J11" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="K11" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="L11" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="N11" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="O11" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="P11" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" s="38">
-        <v>461225892222</v>
-      </c>
-      <c r="R11" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="S11" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="T11" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="U11" s="38">
-        <v>55</v>
-      </c>
-      <c r="V11" s="38">
-        <v>33</v>
-      </c>
-      <c r="W11" s="38">
-        <v>22</v>
-      </c>
-      <c r="X11" s="38">
-        <v>11</v>
-      </c>
-      <c r="Y11" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z11" s="38">
-        <v>55</v>
-      </c>
-      <c r="AA11" s="38">
-        <v>65</v>
-      </c>
-      <c r="AB11" s="38">
-        <v>75</v>
-      </c>
-      <c r="AC11" s="38">
-        <v>55</v>
-      </c>
-      <c r="AD11" s="38">
-        <v>65</v>
-      </c>
-      <c r="AE11" s="38">
-        <v>75</v>
-      </c>
-      <c r="AF11" s="38">
-        <v>45</v>
-      </c>
-      <c r="AG11" s="38">
-        <v>55</v>
-      </c>
-      <c r="AH11" s="38">
-        <v>55</v>
-      </c>
-      <c r="AI11" s="38">
-        <v>65</v>
-      </c>
-      <c r="AJ11" s="38">
-        <v>75</v>
-      </c>
-      <c r="AK11" s="38">
-        <v>45</v>
-      </c>
-      <c r="AL11" s="38">
-        <v>55</v>
-      </c>
-      <c r="AM11" s="38">
-        <v>55</v>
-      </c>
-      <c r="AN11" s="38">
-        <v>65</v>
-      </c>
-      <c r="AO11" s="38">
-        <v>75</v>
-      </c>
-      <c r="AP11" s="38">
-        <v>45</v>
-      </c>
-      <c r="AQ11" s="38">
-        <v>55</v>
-      </c>
-      <c r="AR11" s="38">
-        <v>55</v>
-      </c>
-      <c r="AS11" s="38">
-        <v>65</v>
-      </c>
-      <c r="AT11" s="38">
-        <v>75</v>
-      </c>
-      <c r="AU11" s="38">
-        <v>45</v>
-      </c>
-      <c r="AV11" s="38">
-        <v>55</v>
-      </c>
-      <c r="AW11" s="38">
-        <v>456121232101</v>
-      </c>
-      <c r="AX11" s="38">
-        <v>15</v>
-      </c>
-      <c r="AY11" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="AZ11" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="BA11" s="38">
-        <v>878768768676</v>
-      </c>
-      <c r="BB11" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="BC11" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="BD11" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="BE11" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="BF11" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="BG11" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="BH11" s="38">
-        <v>5</v>
-      </c>
-      <c r="BI11" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="BJ11" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="BK11" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="BL11" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="BM11" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="BN11" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="BO11" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="BQ11" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="BR11" s="38" t="s">
-        <v>180</v>
-      </c>
+    <row r="3" spans="1:70" s="32" customFormat="1" ht="55.2" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="37"/>
+      <c r="AM3" s="37"/>
+      <c r="AN3" s="37"/>
+      <c r="AO3" s="37"/>
+      <c r="AP3" s="37"/>
+      <c r="AQ3" s="37"/>
+      <c r="AR3" s="37"/>
+      <c r="AS3" s="37"/>
+      <c r="AT3" s="37"/>
+      <c r="AU3" s="37"/>
+      <c r="AV3" s="37"/>
+      <c r="AW3" s="37"/>
+      <c r="AX3" s="37"/>
+      <c r="AY3" s="37"/>
+      <c r="AZ3" s="37"/>
+      <c r="BA3" s="37"/>
+      <c r="BB3" s="37"/>
+      <c r="BC3" s="37"/>
+      <c r="BD3" s="37"/>
+      <c r="BE3" s="37"/>
+      <c r="BF3" s="37"/>
+      <c r="BG3" s="37"/>
+      <c r="BH3" s="37"/>
+      <c r="BI3" s="37"/>
+      <c r="BJ3" s="38"/>
+      <c r="BK3" s="37"/>
+      <c r="BL3" s="37"/>
+      <c r="BM3" s="37"/>
+      <c r="BN3" s="37"/>
+      <c r="BO3" s="37"/>
+      <c r="BQ3" s="39"/>
+      <c r="BR3" s="37"/>
+    </row>
+    <row r="4" spans="1:70" s="32" customFormat="1" ht="55.2" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="37"/>
+      <c r="AH4" s="37"/>
+      <c r="AI4" s="37"/>
+      <c r="AJ4" s="37"/>
+      <c r="AK4" s="37"/>
+      <c r="AL4" s="37"/>
+      <c r="AM4" s="37"/>
+      <c r="AN4" s="37"/>
+      <c r="AO4" s="37"/>
+      <c r="AP4" s="37"/>
+      <c r="AQ4" s="37"/>
+      <c r="AR4" s="37"/>
+      <c r="AS4" s="37"/>
+      <c r="AT4" s="37"/>
+      <c r="AU4" s="37"/>
+      <c r="AV4" s="37"/>
+      <c r="AW4" s="37"/>
+      <c r="AX4" s="37"/>
+      <c r="AY4" s="37"/>
+      <c r="AZ4" s="37"/>
+      <c r="BA4" s="37"/>
+      <c r="BB4" s="37"/>
+      <c r="BC4" s="37"/>
+      <c r="BD4" s="37"/>
+      <c r="BE4" s="37"/>
+      <c r="BF4" s="37"/>
+      <c r="BG4" s="37"/>
+      <c r="BH4" s="37"/>
+      <c r="BI4" s="37"/>
+      <c r="BJ4" s="38"/>
+      <c r="BK4" s="37"/>
+      <c r="BL4" s="37"/>
+      <c r="BM4" s="37"/>
+      <c r="BN4" s="37"/>
+      <c r="BO4" s="37"/>
+      <c r="BQ4" s="39"/>
+      <c r="BR4" s="37"/>
+    </row>
+    <row r="5" spans="1:70" s="32" customFormat="1" ht="55.2" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="37"/>
+      <c r="AF5" s="37"/>
+      <c r="AG5" s="37"/>
+      <c r="AH5" s="37"/>
+      <c r="AI5" s="37"/>
+      <c r="AJ5" s="37"/>
+      <c r="AK5" s="37"/>
+      <c r="AL5" s="37"/>
+      <c r="AM5" s="37"/>
+      <c r="AN5" s="37"/>
+      <c r="AO5" s="37"/>
+      <c r="AP5" s="37"/>
+      <c r="AQ5" s="37"/>
+      <c r="AR5" s="37"/>
+      <c r="AS5" s="37"/>
+      <c r="AT5" s="37"/>
+      <c r="AU5" s="37"/>
+      <c r="AV5" s="37"/>
+      <c r="AW5" s="37"/>
+      <c r="AX5" s="37"/>
+      <c r="AY5" s="37"/>
+      <c r="AZ5" s="37"/>
+      <c r="BA5" s="37"/>
+      <c r="BB5" s="37"/>
+      <c r="BC5" s="37"/>
+      <c r="BD5" s="37"/>
+      <c r="BE5" s="37"/>
+      <c r="BF5" s="37"/>
+      <c r="BG5" s="37"/>
+      <c r="BH5" s="37"/>
+      <c r="BI5" s="37"/>
+      <c r="BJ5" s="38"/>
+      <c r="BK5" s="37"/>
+      <c r="BL5" s="37"/>
+      <c r="BM5" s="37"/>
+      <c r="BN5" s="37"/>
+      <c r="BO5" s="37"/>
+      <c r="BQ5" s="39"/>
+      <c r="BR5" s="37"/>
+    </row>
+    <row r="6" spans="1:70" s="32" customFormat="1" ht="55.2" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="37"/>
+      <c r="AH6" s="37"/>
+      <c r="AI6" s="37"/>
+      <c r="AJ6" s="37"/>
+      <c r="AK6" s="37"/>
+      <c r="AL6" s="37"/>
+      <c r="AM6" s="37"/>
+      <c r="AN6" s="37"/>
+      <c r="AO6" s="37"/>
+      <c r="AP6" s="37"/>
+      <c r="AQ6" s="37"/>
+      <c r="AR6" s="37"/>
+      <c r="AS6" s="37"/>
+      <c r="AT6" s="37"/>
+      <c r="AU6" s="37"/>
+      <c r="AV6" s="37"/>
+      <c r="AW6" s="37"/>
+      <c r="AX6" s="37"/>
+      <c r="AY6" s="37"/>
+      <c r="AZ6" s="37"/>
+      <c r="BA6" s="37"/>
+      <c r="BB6" s="37"/>
+      <c r="BC6" s="37"/>
+      <c r="BD6" s="37"/>
+      <c r="BE6" s="37"/>
+      <c r="BF6" s="37"/>
+      <c r="BG6" s="37"/>
+      <c r="BH6" s="37"/>
+      <c r="BI6" s="37"/>
+      <c r="BJ6" s="38"/>
+      <c r="BK6" s="37"/>
+      <c r="BL6" s="37"/>
+      <c r="BM6" s="37"/>
+      <c r="BN6" s="37"/>
+      <c r="BO6" s="37"/>
+      <c r="BQ6" s="39"/>
+      <c r="BR6" s="37"/>
+    </row>
+    <row r="7" spans="1:70" s="32" customFormat="1" ht="55.2" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="37"/>
+      <c r="AG7" s="37"/>
+      <c r="AH7" s="37"/>
+      <c r="AI7" s="37"/>
+      <c r="AJ7" s="37"/>
+      <c r="AK7" s="37"/>
+      <c r="AL7" s="37"/>
+      <c r="AM7" s="37"/>
+      <c r="AN7" s="37"/>
+      <c r="AO7" s="37"/>
+      <c r="AP7" s="37"/>
+      <c r="AQ7" s="37"/>
+      <c r="AR7" s="37"/>
+      <c r="AS7" s="37"/>
+      <c r="AT7" s="37"/>
+      <c r="AU7" s="37"/>
+      <c r="AV7" s="37"/>
+      <c r="AW7" s="37"/>
+      <c r="AX7" s="37"/>
+      <c r="AY7" s="37"/>
+      <c r="AZ7" s="37"/>
+      <c r="BA7" s="37"/>
+      <c r="BB7" s="37"/>
+      <c r="BC7" s="37"/>
+      <c r="BD7" s="37"/>
+      <c r="BE7" s="37"/>
+      <c r="BF7" s="37"/>
+      <c r="BG7" s="37"/>
+      <c r="BH7" s="37"/>
+      <c r="BI7" s="37"/>
+      <c r="BJ7" s="38"/>
+      <c r="BK7" s="37"/>
+      <c r="BL7" s="37"/>
+      <c r="BM7" s="37"/>
+      <c r="BN7" s="37"/>
+      <c r="BO7" s="37"/>
+      <c r="BQ7" s="39"/>
+      <c r="BR7" s="37"/>
+    </row>
+    <row r="8" spans="1:70" s="32" customFormat="1" ht="55.2" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="37"/>
+      <c r="AG8" s="37"/>
+      <c r="AH8" s="37"/>
+      <c r="AI8" s="37"/>
+      <c r="AJ8" s="37"/>
+      <c r="AK8" s="37"/>
+      <c r="AL8" s="37"/>
+      <c r="AM8" s="37"/>
+      <c r="AN8" s="37"/>
+      <c r="AO8" s="37"/>
+      <c r="AP8" s="37"/>
+      <c r="AQ8" s="37"/>
+      <c r="AR8" s="37"/>
+      <c r="AS8" s="37"/>
+      <c r="AT8" s="37"/>
+      <c r="AU8" s="37"/>
+      <c r="AV8" s="37"/>
+      <c r="AW8" s="37"/>
+      <c r="AX8" s="37"/>
+      <c r="AY8" s="37"/>
+      <c r="AZ8" s="37"/>
+      <c r="BA8" s="37"/>
+      <c r="BB8" s="37"/>
+      <c r="BC8" s="37"/>
+      <c r="BD8" s="37"/>
+      <c r="BE8" s="37"/>
+      <c r="BF8" s="37"/>
+      <c r="BG8" s="37"/>
+      <c r="BH8" s="37"/>
+      <c r="BI8" s="37"/>
+      <c r="BJ8" s="38"/>
+      <c r="BK8" s="37"/>
+      <c r="BL8" s="37"/>
+      <c r="BM8" s="37"/>
+      <c r="BN8" s="37"/>
+      <c r="BO8" s="37"/>
+      <c r="BQ8" s="39"/>
+      <c r="BR8" s="37"/>
+    </row>
+    <row r="9" spans="1:70" s="32" customFormat="1" ht="55.2" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="37"/>
+      <c r="AF9" s="37"/>
+      <c r="AG9" s="37"/>
+      <c r="AH9" s="37"/>
+      <c r="AI9" s="37"/>
+      <c r="AJ9" s="37"/>
+      <c r="AK9" s="37"/>
+      <c r="AL9" s="37"/>
+      <c r="AM9" s="37"/>
+      <c r="AN9" s="37"/>
+      <c r="AO9" s="37"/>
+      <c r="AP9" s="37"/>
+      <c r="AQ9" s="37"/>
+      <c r="AR9" s="37"/>
+      <c r="AS9" s="37"/>
+      <c r="AT9" s="37"/>
+      <c r="AU9" s="37"/>
+      <c r="AV9" s="37"/>
+      <c r="AW9" s="37"/>
+      <c r="AX9" s="37"/>
+      <c r="AY9" s="37"/>
+      <c r="AZ9" s="37"/>
+      <c r="BA9" s="37"/>
+      <c r="BB9" s="37"/>
+      <c r="BC9" s="37"/>
+      <c r="BD9" s="37"/>
+      <c r="BE9" s="37"/>
+      <c r="BF9" s="37"/>
+      <c r="BG9" s="37"/>
+      <c r="BH9" s="37"/>
+      <c r="BI9" s="37"/>
+      <c r="BJ9" s="38"/>
+      <c r="BK9" s="37"/>
+      <c r="BL9" s="37"/>
+      <c r="BM9" s="37"/>
+      <c r="BN9" s="37"/>
+      <c r="BO9" s="37"/>
+      <c r="BQ9" s="39"/>
+      <c r="BR9" s="37"/>
+    </row>
+    <row r="10" spans="1:70" s="32" customFormat="1" ht="55.2" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="37"/>
+      <c r="AD10" s="37"/>
+      <c r="AE10" s="37"/>
+      <c r="AF10" s="37"/>
+      <c r="AG10" s="37"/>
+      <c r="AH10" s="37"/>
+      <c r="AI10" s="37"/>
+      <c r="AJ10" s="37"/>
+      <c r="AK10" s="37"/>
+      <c r="AL10" s="37"/>
+      <c r="AM10" s="37"/>
+      <c r="AN10" s="37"/>
+      <c r="AO10" s="37"/>
+      <c r="AP10" s="37"/>
+      <c r="AQ10" s="37"/>
+      <c r="AR10" s="37"/>
+      <c r="AS10" s="37"/>
+      <c r="AT10" s="37"/>
+      <c r="AU10" s="37"/>
+      <c r="AV10" s="37"/>
+      <c r="AW10" s="37"/>
+      <c r="AX10" s="37"/>
+      <c r="AY10" s="37"/>
+      <c r="AZ10" s="37"/>
+      <c r="BA10" s="37"/>
+      <c r="BB10" s="37"/>
+      <c r="BC10" s="37"/>
+      <c r="BD10" s="37"/>
+      <c r="BE10" s="37"/>
+      <c r="BF10" s="37"/>
+      <c r="BG10" s="37"/>
+      <c r="BH10" s="37"/>
+      <c r="BI10" s="37"/>
+      <c r="BJ10" s="38"/>
+      <c r="BK10" s="37"/>
+      <c r="BL10" s="37"/>
+      <c r="BM10" s="37"/>
+      <c r="BN10" s="37"/>
+      <c r="BO10" s="37"/>
+      <c r="BQ10" s="39"/>
+      <c r="BR10" s="37"/>
+    </row>
+    <row r="11" spans="1:70" s="32" customFormat="1" ht="55.2" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="37"/>
+      <c r="AC11" s="37"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="37"/>
+      <c r="AF11" s="37"/>
+      <c r="AG11" s="37"/>
+      <c r="AH11" s="37"/>
+      <c r="AI11" s="37"/>
+      <c r="AJ11" s="37"/>
+      <c r="AK11" s="37"/>
+      <c r="AL11" s="37"/>
+      <c r="AM11" s="37"/>
+      <c r="AN11" s="37"/>
+      <c r="AO11" s="37"/>
+      <c r="AP11" s="37"/>
+      <c r="AQ11" s="37"/>
+      <c r="AR11" s="37"/>
+      <c r="AS11" s="37"/>
+      <c r="AT11" s="37"/>
+      <c r="AU11" s="37"/>
+      <c r="AV11" s="37"/>
+      <c r="AW11" s="37"/>
+      <c r="AX11" s="37"/>
+      <c r="AY11" s="37"/>
+      <c r="AZ11" s="37"/>
+      <c r="BA11" s="37"/>
+      <c r="BB11" s="37"/>
+      <c r="BC11" s="37"/>
+      <c r="BD11" s="37"/>
+      <c r="BE11" s="37"/>
+      <c r="BF11" s="37"/>
+      <c r="BG11" s="37"/>
+      <c r="BH11" s="37"/>
+      <c r="BI11" s="37"/>
+      <c r="BJ11" s="38"/>
+      <c r="BK11" s="37"/>
+      <c r="BL11" s="37"/>
+      <c r="BM11" s="37"/>
+      <c r="BN11" s="37"/>
+      <c r="BO11" s="37"/>
+      <c r="BQ11" s="39"/>
+      <c r="BR11" s="37"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{8A74DB17-1E49-48EE-85F1-9A5A7F0B7C46}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{937B4FA5-7078-465A-875F-14C3ECB27A27}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{4A5F91AF-AADC-4AAE-AC61-DC14D23C7056}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{8E84ED4F-6C2B-44A8-8A92-7AC6D4634228}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{05BE8A0A-9E37-44FF-92F3-1A65D7F05F0E}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{1D48B227-46B6-449B-AAFF-5C689E4DEA9B}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{726F53DF-F442-4754-931F-C4B847A6D6D0}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{2108B611-26D6-48AD-97FD-0852C1BF39B0}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{D58F710F-49EA-48D9-A7DC-BC3DC1579B0F}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{57F825CA-9409-4F99-8976-12F06CE5B373}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7231,7 +6156,7 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.21875" customWidth="1"/>
     <col min="2" max="2" width="16.109375" customWidth="1"/>
@@ -7241,7 +6166,7 @@
     <col min="6" max="6" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="20" customFormat="1">
       <c r="A1" s="21" t="s">
         <v>131</v>
       </c>
@@ -7261,7 +6186,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="7" t="s">
         <v>135</v>
       </c>
@@ -7281,7 +6206,7 @@
         <v>324874</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
         <v>139</v>
       </c>
@@ -7293,7 +6218,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
         <v>140</v>
       </c>
@@ -7305,7 +6230,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="7" t="s">
         <v>142</v>
       </c>
@@ -7334,7 +6259,7 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="37.5546875" customWidth="1"/>
     <col min="2" max="2" width="73.21875" customWidth="1"/>
@@ -7342,7 +6267,7 @@
     <col min="4" max="4" width="58.109375" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="23" t="s">
         <v>146</v>
       </c>
@@ -7356,7 +6281,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="27" t="s">
         <v>135</v>
       </c>
@@ -7370,7 +6295,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="27" t="s">
         <v>140</v>
       </c>
@@ -7384,7 +6309,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="27" t="s">
         <v>142</v>
       </c>
@@ -7398,7 +6323,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="C5" s="22" t="s">
         <v>142</v>
       </c>
@@ -7419,7 +6344,7 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26.33203125" customWidth="1"/>
     <col min="2" max="3" width="24.44140625" customWidth="1"/>
@@ -7452,7 +6377,7 @@
     <col min="36" max="37" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:62" s="7" customFormat="1" ht="43.2">
       <c r="A1" s="8" t="s">
         <v>191</v>
       </c>
@@ -7640,7 +6565,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:62" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:62" ht="43.2" customHeight="1">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -7828,7 +6753,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:62">
       <c r="H3" t="s">
         <v>84</v>
       </c>
@@ -7950,7 +6875,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:62">
       <c r="R4">
         <v>45645</v>
       </c>
@@ -8051,7 +6976,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:62">
       <c r="R5" t="s">
         <v>51</v>
       </c>
@@ -8062,7 +6987,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:62">
       <c r="R6" t="s">
         <v>52</v>
       </c>
@@ -8101,7 +7026,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
@@ -8111,7 +7036,7 @@
     <col min="6" max="6" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="28.8">
       <c r="A1" s="5" t="s">
         <v>39</v>
       </c>
@@ -8131,7 +7056,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>214</v>
       </c>
@@ -8167,7 +7092,7 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="46" customWidth="1"/>
     <col min="2" max="2" width="36.21875" customWidth="1"/>
@@ -8176,7 +7101,7 @@
     <col min="5" max="5" width="43.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="21" t="s">
         <v>104</v>
       </c>
@@ -8190,7 +7115,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
         <v>187</v>
       </c>
@@ -8204,7 +7129,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
         <v>187</v>
       </c>
@@ -8216,7 +7141,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
         <v>187</v>
       </c>
@@ -8228,7 +7153,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="7" t="s">
         <v>187</v>
       </c>
@@ -8255,13 +7180,13 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="27.21875" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="30" customFormat="1">
       <c r="A1" s="29" t="s">
         <v>131</v>
       </c>
@@ -8269,7 +7194,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
         <v>207</v>
       </c>
@@ -8277,7 +7202,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
         <v>140</v>
       </c>
@@ -8285,7 +7210,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
         <v>139</v>
       </c>
@@ -8293,7 +7218,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
         <v>142</v>
       </c>
